--- a/Project Reentry Documents/project_reentry_organizations_inital_upload.xlsx
+++ b/Project Reentry Documents/project_reentry_organizations_inital_upload.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harry/Projects/project-reentry/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harry/Projects/project-reentry/project-reentry/Project Reentry Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C55C37C-F682-D241-B74F-E668006849FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE42907-D042-4341-8577-2E34D02C8B05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="460" windowWidth="28020" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="project_reentry_organizations_i" sheetId="1" r:id="rId1"/>
@@ -5195,9 +5195,6 @@
     <t>Oakland Family Services</t>
   </si>
   <si>
-    <t>2351 West 12 Mile Road</t>
-  </si>
-  <si>
     <t>Berkley</t>
   </si>
   <si>
@@ -8020,6 +8017,9 @@
   </si>
   <si>
     <t>https://grandrapidsaa.org/</t>
+  </si>
+  <si>
+    <t>2351 Twelve Mile Rd</t>
   </si>
 </sst>
 </file>
@@ -8028,7 +8028,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM"/>
-    <numFmt numFmtId="170" formatCode="[$-409]h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -8047,12 +8047,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -8099,14 +8101,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -8328,9 +8330,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY697"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A9" sqref="A9"/>
+      <selection pane="topRight" activeCell="C627" sqref="C627"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8545,13 +8547,13 @@
     </row>
     <row r="2" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>2216</v>
+      </c>
+      <c r="C2" t="s">
         <v>2217</v>
       </c>
-      <c r="C2" t="s">
-        <v>2218</v>
-      </c>
       <c r="D2" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="E2" t="s">
         <v>979</v>
@@ -8563,10 +8565,10 @@
         <v>48624</v>
       </c>
       <c r="I2" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="AD2" t="s">
         <v>56</v>
@@ -8601,7 +8603,7 @@
         <v>264</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="L3" t="s">
         <v>56</v>
@@ -8707,7 +8709,7 @@
         <v>344</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="L5" t="s">
         <v>56</v>
@@ -8792,7 +8794,7 @@
         <v>48203</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="K7" t="s">
         <v>1667</v>
@@ -8821,10 +8823,10 @@
         <v>48201</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="AC8" t="s">
         <v>56</v>
@@ -8841,7 +8843,7 @@
         <v>1536</v>
       </c>
       <c r="C9" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="E9" t="s">
         <v>61</v>
@@ -8856,7 +8858,7 @@
         <v>1537</v>
       </c>
       <c r="J9" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="K9" t="s">
         <v>1538</v>
@@ -8936,7 +8938,7 @@
         <v>915</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="AA10" t="s">
         <v>56</v>
@@ -8950,10 +8952,10 @@
         <v>323</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>2525</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>2526</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>2527</v>
       </c>
       <c r="E11" t="s">
         <v>53</v>
@@ -8968,7 +8970,7 @@
         <v>324</v>
       </c>
       <c r="K11" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="L11" t="s">
         <v>56</v>
@@ -9036,7 +9038,7 @@
         <v>957</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="AC12" t="s">
         <v>56</v>
@@ -9077,7 +9079,7 @@
         <v>1029</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="AD13" t="s">
         <v>56</v>
@@ -9100,10 +9102,10 @@
     </row>
     <row r="14" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>2249</v>
+      </c>
+      <c r="C14" t="s">
         <v>2250</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2251</v>
       </c>
       <c r="E14" t="s">
         <v>66</v>
@@ -9115,10 +9117,10 @@
         <v>49507</v>
       </c>
       <c r="I14" t="s">
+        <v>2251</v>
+      </c>
+      <c r="K14" t="s">
         <v>2252</v>
-      </c>
-      <c r="K14" t="s">
-        <v>2253</v>
       </c>
       <c r="L14" t="s">
         <v>56</v>
@@ -9248,7 +9250,7 @@
         <v>1130</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="AC16" t="s">
         <v>56</v>
@@ -9338,7 +9340,7 @@
         <v>1185</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="AD19" t="s">
         <v>56</v>
@@ -9346,13 +9348,13 @@
     </row>
     <row r="20" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>2226</v>
+      </c>
+      <c r="C20" t="s">
         <v>2227</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
         <v>2228</v>
-      </c>
-      <c r="E20" t="s">
-        <v>2229</v>
       </c>
       <c r="F20" t="s">
         <v>54</v>
@@ -9361,10 +9363,10 @@
         <v>48848</v>
       </c>
       <c r="I20" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="AA20" t="s">
         <v>56</v>
@@ -9452,7 +9454,7 @@
         <v>1358</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="L22" t="s">
         <v>56</v>
@@ -9586,10 +9588,10 @@
         <v>1503</v>
       </c>
       <c r="C26" t="s">
+        <v>2488</v>
+      </c>
+      <c r="D26" t="s">
         <v>2489</v>
-      </c>
-      <c r="D26" t="s">
-        <v>2490</v>
       </c>
       <c r="E26" t="s">
         <v>202</v>
@@ -9604,7 +9606,7 @@
         <v>1504</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="L26" t="s">
         <v>56</v>
@@ -9660,7 +9662,7 @@
         <v>1527</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="AD27" t="s">
         <v>56</v>
@@ -9669,7 +9671,7 @@
         <v>56</v>
       </c>
       <c r="AU27" s="2" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="28" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9798,7 +9800,7 @@
         <v>1690</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="AD30" t="s">
         <v>56</v>
@@ -9827,7 +9829,7 @@
         <v>1692</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="AD31" t="s">
         <v>56</v>
@@ -9838,10 +9840,10 @@
     </row>
     <row r="32" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C32" t="s">
         <v>1773</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1774</v>
       </c>
       <c r="E32" t="s">
         <v>53</v>
@@ -9853,10 +9855,10 @@
         <v>48213</v>
       </c>
       <c r="I32" t="s">
+        <v>1774</v>
+      </c>
+      <c r="K32" t="s">
         <v>1775</v>
-      </c>
-      <c r="K32" t="s">
-        <v>1776</v>
       </c>
       <c r="L32" t="s">
         <v>56</v>
@@ -9912,10 +9914,10 @@
     </row>
     <row r="33" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C33" t="s">
         <v>1810</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1811</v>
       </c>
       <c r="E33" t="s">
         <v>53</v>
@@ -9927,10 +9929,10 @@
         <v>48212</v>
       </c>
       <c r="I33" t="s">
+        <v>1811</v>
+      </c>
+      <c r="K33" t="s">
         <v>1812</v>
-      </c>
-      <c r="K33" t="s">
-        <v>1813</v>
       </c>
       <c r="L33" t="s">
         <v>56</v>
@@ -9977,10 +9979,10 @@
     </row>
     <row r="34" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C34" t="s">
         <v>1817</v>
-      </c>
-      <c r="C34" t="s">
-        <v>1818</v>
       </c>
       <c r="E34" t="s">
         <v>53</v>
@@ -9992,13 +9994,13 @@
         <v>48221</v>
       </c>
       <c r="I34" t="s">
+        <v>1818</v>
+      </c>
+      <c r="J34" t="s">
         <v>1819</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>1820</v>
-      </c>
-      <c r="K34" t="s">
-        <v>1821</v>
       </c>
       <c r="L34" t="s">
         <v>56</v>
@@ -10048,13 +10050,13 @@
     </row>
     <row r="35" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="C35" t="s">
+        <v>2486</v>
+      </c>
+      <c r="D35" t="s">
         <v>2487</v>
-      </c>
-      <c r="D35" t="s">
-        <v>2488</v>
       </c>
       <c r="E35" t="s">
         <v>497</v>
@@ -10066,10 +10068,10 @@
         <v>49464</v>
       </c>
       <c r="I35" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="AD35" t="s">
         <v>56</v>
@@ -10080,10 +10082,10 @@
     </row>
     <row r="36" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C36" t="s">
         <v>1822</v>
-      </c>
-      <c r="C36" t="s">
-        <v>1823</v>
       </c>
       <c r="E36" t="s">
         <v>202</v>
@@ -10095,10 +10097,10 @@
         <v>48067</v>
       </c>
       <c r="I36" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="AD36" t="s">
         <v>56</v>
@@ -10109,13 +10111,13 @@
     </row>
     <row r="37" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="C37" t="s">
+        <v>1824</v>
+      </c>
+      <c r="E37" t="s">
         <v>1825</v>
-      </c>
-      <c r="E37" t="s">
-        <v>1826</v>
       </c>
       <c r="F37" t="s">
         <v>54</v>
@@ -10124,10 +10126,10 @@
         <v>49456</v>
       </c>
       <c r="I37" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="AD37" t="s">
         <v>56</v>
@@ -10138,10 +10140,10 @@
     </row>
     <row r="38" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C38" t="s">
         <v>1864</v>
-      </c>
-      <c r="C38" t="s">
-        <v>1865</v>
       </c>
       <c r="E38" t="s">
         <v>1161</v>
@@ -10153,10 +10155,10 @@
         <v>49307</v>
       </c>
       <c r="I38" t="s">
+        <v>1865</v>
+      </c>
+      <c r="K38" t="s">
         <v>1866</v>
-      </c>
-      <c r="K38" t="s">
-        <v>1867</v>
       </c>
       <c r="L38" t="s">
         <v>56</v>
@@ -10201,7 +10203,7 @@
         <v>56</v>
       </c>
       <c r="AY38" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="39" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10210,10 +10212,10 @@
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D39" t="s">
         <v>2485</v>
-      </c>
-      <c r="D39" t="s">
-        <v>2486</v>
       </c>
       <c r="E39" t="s">
         <v>53</v>
@@ -10239,10 +10241,10 @@
     </row>
     <row r="40" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>2030</v>
+      </c>
+      <c r="C40" t="s">
         <v>2031</v>
-      </c>
-      <c r="C40" t="s">
-        <v>2032</v>
       </c>
       <c r="E40" t="s">
         <v>53</v>
@@ -10254,16 +10256,16 @@
         <v>48210</v>
       </c>
       <c r="H40" t="s">
+        <v>2032</v>
+      </c>
+      <c r="I40" t="s">
         <v>2033</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>2034</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>2035</v>
-      </c>
-      <c r="K40" t="s">
-        <v>2036</v>
       </c>
       <c r="L40" t="s">
         <v>56</v>
@@ -10304,13 +10306,13 @@
     </row>
     <row r="41" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>2040</v>
+      </c>
+      <c r="C41" t="s">
         <v>2041</v>
       </c>
-      <c r="C41" t="s">
+      <c r="E41" t="s">
         <v>2042</v>
-      </c>
-      <c r="E41" t="s">
-        <v>2043</v>
       </c>
       <c r="F41" t="s">
         <v>54</v>
@@ -10319,10 +10321,10 @@
         <v>49326</v>
       </c>
       <c r="I41" t="s">
+        <v>2043</v>
+      </c>
+      <c r="K41" t="s">
         <v>2044</v>
-      </c>
-      <c r="K41" t="s">
-        <v>2045</v>
       </c>
       <c r="AA41" t="s">
         <v>56</v>
@@ -10333,10 +10335,10 @@
     </row>
     <row r="42" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>2045</v>
+      </c>
+      <c r="C42" t="s">
         <v>2046</v>
-      </c>
-      <c r="C42" t="s">
-        <v>2047</v>
       </c>
       <c r="E42" t="s">
         <v>979</v>
@@ -10348,10 +10350,10 @@
         <v>48624</v>
       </c>
       <c r="I42" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="AA42" t="s">
         <v>56</v>
@@ -10380,10 +10382,10 @@
     </row>
     <row r="43" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="C43" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="E43" t="s">
         <v>1373</v>
@@ -10395,13 +10397,13 @@
         <v>48066</v>
       </c>
       <c r="I43" t="s">
+        <v>1959</v>
+      </c>
+      <c r="J43" t="s">
         <v>1960</v>
       </c>
-      <c r="J43" t="s">
-        <v>1961</v>
-      </c>
       <c r="K43" s="3" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="L43" t="s">
         <v>56</v>
@@ -10442,10 +10444,10 @@
     </row>
     <row r="44" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>1961</v>
+      </c>
+      <c r="C44" t="s">
         <v>1962</v>
-      </c>
-      <c r="C44" t="s">
-        <v>1963</v>
       </c>
       <c r="E44" t="s">
         <v>53</v>
@@ -10457,10 +10459,10 @@
         <v>48210</v>
       </c>
       <c r="I44" t="s">
+        <v>1963</v>
+      </c>
+      <c r="K44" t="s">
         <v>1964</v>
-      </c>
-      <c r="K44" t="s">
-        <v>1965</v>
       </c>
       <c r="L44" t="s">
         <v>56</v>
@@ -10505,18 +10507,18 @@
         <v>95</v>
       </c>
       <c r="AW44" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="45" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>2145</v>
+      </c>
+      <c r="C45" t="s">
         <v>2146</v>
       </c>
-      <c r="C45" t="s">
+      <c r="E45" t="s">
         <v>2147</v>
-      </c>
-      <c r="E45" t="s">
-        <v>2148</v>
       </c>
       <c r="F45" t="s">
         <v>54</v>
@@ -10525,10 +10527,10 @@
         <v>48883</v>
       </c>
       <c r="I45" t="s">
+        <v>2148</v>
+      </c>
+      <c r="K45" t="s">
         <v>2149</v>
-      </c>
-      <c r="K45" t="s">
-        <v>2150</v>
       </c>
       <c r="AB45" t="s">
         <v>56</v>
@@ -10539,10 +10541,10 @@
     </row>
     <row r="46" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>2198</v>
+      </c>
+      <c r="C46" t="s">
         <v>2199</v>
-      </c>
-      <c r="C46" t="s">
-        <v>2200</v>
       </c>
       <c r="E46" t="s">
         <v>113</v>
@@ -10554,10 +10556,10 @@
         <v>48174</v>
       </c>
       <c r="I46" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="L46" t="s">
         <v>56</v>
@@ -10601,10 +10603,10 @@
     </row>
     <row r="47" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>2298</v>
+      </c>
+      <c r="C47" t="s">
         <v>2299</v>
-      </c>
-      <c r="C47" t="s">
-        <v>2300</v>
       </c>
       <c r="E47" t="s">
         <v>1447</v>
@@ -10616,10 +10618,10 @@
         <v>48723</v>
       </c>
       <c r="I47" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="AD47" t="s">
         <v>56</v>
@@ -10633,10 +10635,10 @@
     </row>
     <row r="48" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>2376</v>
+      </c>
+      <c r="C48" t="s">
         <v>2377</v>
-      </c>
-      <c r="C48" t="s">
-        <v>2378</v>
       </c>
       <c r="E48" t="s">
         <v>356</v>
@@ -10648,10 +10650,10 @@
         <v>48502</v>
       </c>
       <c r="I48" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="L48" t="s">
         <v>56</v>
@@ -10696,7 +10698,7 @@
         <v>56</v>
       </c>
       <c r="AW48" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="49" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10725,7 +10727,7 @@
         <v>129</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="AC49" t="s">
         <v>56</v>
@@ -10748,7 +10750,7 @@
         <v>49548</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="K50" t="s">
         <v>137</v>
@@ -10792,7 +10794,7 @@
         <v>179</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="AC51" t="s">
         <v>56</v>
@@ -10839,7 +10841,7 @@
         <v>240</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="AD52" t="s">
         <v>56</v>
@@ -10865,7 +10867,7 @@
         <v>240</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="AD53" t="s">
         <v>56</v>
@@ -10894,7 +10896,7 @@
         <v>245</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="AD54" t="s">
         <v>56</v>
@@ -10905,7 +10907,7 @@
     </row>
     <row r="55" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="C55" t="s">
         <v>287</v>
@@ -11020,7 +11022,7 @@
         <v>321</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="L57" t="s">
         <v>56</v>
@@ -11085,7 +11087,7 @@
         <v>552</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="AD58" t="s">
         <v>56</v>
@@ -11114,7 +11116,7 @@
         <v>552</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="AD59" t="s">
         <v>56</v>
@@ -11146,7 +11148,7 @@
         <v>962</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="AD60" t="s">
         <v>56</v>
@@ -11175,7 +11177,7 @@
         <v>552</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="AD61" t="s">
         <v>56</v>
@@ -11201,7 +11203,7 @@
         <v>412</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="L62" t="s">
         <v>56</v>
@@ -11248,10 +11250,10 @@
     </row>
     <row r="63" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
+        <v>2588</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>2589</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>2590</v>
       </c>
       <c r="E63" t="s">
         <v>53</v>
@@ -11266,7 +11268,7 @@
         <v>664</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="L63" t="s">
         <v>56</v>
@@ -11481,7 +11483,7 @@
         <v>807</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="L67" t="s">
         <v>56</v>
@@ -11673,7 +11675,7 @@
         <v>714</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="AF70" t="s">
         <v>56</v>
@@ -11696,10 +11698,10 @@
     </row>
     <row r="71" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C71" t="s">
         <v>1895</v>
-      </c>
-      <c r="C71" t="s">
-        <v>1896</v>
       </c>
       <c r="E71" t="s">
         <v>742</v>
@@ -11711,10 +11713,10 @@
         <v>48130</v>
       </c>
       <c r="I71" t="s">
+        <v>1896</v>
+      </c>
+      <c r="K71" t="s">
         <v>1897</v>
-      </c>
-      <c r="K71" t="s">
-        <v>1898</v>
       </c>
       <c r="AE71" t="s">
         <v>56</v>
@@ -11798,10 +11800,10 @@
     </row>
     <row r="74" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>2439</v>
+      </c>
+      <c r="C74" t="s">
         <v>2440</v>
-      </c>
-      <c r="C74" t="s">
-        <v>2441</v>
       </c>
       <c r="E74" t="s">
         <v>911</v>
@@ -11813,13 +11815,13 @@
         <v>48220</v>
       </c>
       <c r="I74" t="s">
+        <v>2441</v>
+      </c>
+      <c r="J74" t="s">
         <v>2442</v>
       </c>
-      <c r="J74" t="s">
-        <v>2443</v>
-      </c>
       <c r="K74" s="3" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="AA74" t="s">
         <v>56</v>
@@ -11845,7 +11847,7 @@
         <v>48105</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="K75" t="s">
         <v>942</v>
@@ -11913,7 +11915,7 @@
         <v>1049</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="AD76" t="s">
         <v>56</v>
@@ -11997,10 +11999,10 @@
     </row>
     <row r="79" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>2233</v>
+      </c>
+      <c r="C79" t="s">
         <v>2234</v>
-      </c>
-      <c r="C79" t="s">
-        <v>2235</v>
       </c>
       <c r="E79" t="s">
         <v>472</v>
@@ -12012,10 +12014,10 @@
         <v>48195</v>
       </c>
       <c r="I79" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="L79" t="s">
         <v>56</v>
@@ -12077,7 +12079,7 @@
         <v>1082</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="L80" t="s">
         <v>56</v>
@@ -12136,7 +12138,7 @@
         <v>1133</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="L81" t="s">
         <v>56</v>
@@ -12198,7 +12200,7 @@
         <v>1111</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="AA82" t="s">
         <v>56</v>
@@ -12227,7 +12229,7 @@
         <v>1143</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="AA83" t="s">
         <v>56</v>
@@ -12274,7 +12276,7 @@
         <v>1170</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="L84" t="s">
         <v>56</v>
@@ -12300,7 +12302,7 @@
     </row>
     <row r="85" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="C85" t="s">
         <v>1171</v>
@@ -12315,7 +12317,7 @@
         <v>48103</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="K85" t="s">
         <v>1172</v>
@@ -12424,7 +12426,7 @@
         <v>1216</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="L87" t="s">
         <v>56</v>
@@ -12527,7 +12529,7 @@
         <v>1286</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="AB89" t="s">
         <v>56</v>
@@ -12553,7 +12555,7 @@
         <v>1296</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="E90" t="s">
         <v>1297</v>
@@ -12597,7 +12599,7 @@
         <v>1354</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="AI91" t="s">
         <v>56</v>
@@ -12702,7 +12704,7 @@
         <v>1384</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="L94" t="s">
         <v>56</v>
@@ -12746,7 +12748,7 @@
         <v>1368</v>
       </c>
       <c r="C95" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="E95" t="s">
         <v>364</v>
@@ -12858,7 +12860,7 @@
         <v>674</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="L97" t="s">
         <v>56</v>
@@ -12920,7 +12922,7 @@
         <v>676</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="L98" t="s">
         <v>56</v>
@@ -12985,7 +12987,7 @@
         <v>81</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="AB99" t="s">
         <v>56</v>
@@ -13105,7 +13107,7 @@
         <v>48042</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="K102" t="s">
         <v>451</v>
@@ -13116,10 +13118,10 @@
     </row>
     <row r="103" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>1801</v>
+      </c>
+      <c r="C103" t="s">
         <v>1802</v>
-      </c>
-      <c r="C103" t="s">
-        <v>1803</v>
       </c>
       <c r="E103" t="s">
         <v>53</v>
@@ -13131,10 +13133,10 @@
         <v>48202</v>
       </c>
       <c r="I103" t="s">
+        <v>1803</v>
+      </c>
+      <c r="K103" t="s">
         <v>1804</v>
-      </c>
-      <c r="K103" t="s">
-        <v>1805</v>
       </c>
       <c r="AB103" t="s">
         <v>56</v>
@@ -13145,13 +13147,13 @@
     </row>
     <row r="104" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C104" t="s">
         <v>1836</v>
       </c>
-      <c r="C104" t="s">
+      <c r="E104" t="s">
         <v>1837</v>
-      </c>
-      <c r="E104" t="s">
-        <v>1838</v>
       </c>
       <c r="F104" t="s">
         <v>54</v>
@@ -13160,10 +13162,10 @@
         <v>48170</v>
       </c>
       <c r="I104" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="L104" t="s">
         <v>56</v>
@@ -13225,7 +13227,7 @@
         <v>704</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="L105" t="s">
         <v>56</v>
@@ -13281,10 +13283,10 @@
         <v>121</v>
       </c>
       <c r="C106" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="D106" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="E106" t="s">
         <v>122</v>
@@ -13310,10 +13312,10 @@
     </row>
     <row r="107" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C107" t="s">
         <v>1929</v>
-      </c>
-      <c r="C107" t="s">
-        <v>1930</v>
       </c>
       <c r="E107" t="s">
         <v>280</v>
@@ -13322,10 +13324,10 @@
         <v>54</v>
       </c>
       <c r="I107" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="AA107" t="s">
         <v>56</v>
@@ -13336,10 +13338,10 @@
     </row>
     <row r="108" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C108" t="s">
         <v>2026</v>
-      </c>
-      <c r="C108" t="s">
-        <v>2027</v>
       </c>
       <c r="E108" t="s">
         <v>53</v>
@@ -13351,22 +13353,22 @@
         <v>48227</v>
       </c>
       <c r="I108" t="s">
+        <v>2027</v>
+      </c>
+      <c r="K108" t="s">
         <v>2028</v>
       </c>
-      <c r="K108" t="s">
+      <c r="AA108" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH108" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI108" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY108" t="s">
         <v>2029</v>
-      </c>
-      <c r="AA108" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH108" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI108" t="s">
-        <v>56</v>
-      </c>
-      <c r="AY108" t="s">
-        <v>2030</v>
       </c>
     </row>
     <row r="109" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13451,10 +13453,10 @@
     </row>
     <row r="110" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
+        <v>2098</v>
+      </c>
+      <c r="C110" t="s">
         <v>2099</v>
-      </c>
-      <c r="C110" t="s">
-        <v>2100</v>
       </c>
       <c r="E110" t="s">
         <v>53</v>
@@ -13466,13 +13468,13 @@
         <v>48208</v>
       </c>
       <c r="I110" t="s">
+        <v>2100</v>
+      </c>
+      <c r="J110" t="s">
         <v>2101</v>
       </c>
-      <c r="J110" t="s">
+      <c r="K110" t="s">
         <v>2102</v>
-      </c>
-      <c r="K110" t="s">
-        <v>2103</v>
       </c>
       <c r="L110" t="s">
         <v>56</v>
@@ -13498,10 +13500,10 @@
     </row>
     <row r="111" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
+        <v>2124</v>
+      </c>
+      <c r="C111" t="s">
         <v>2125</v>
-      </c>
-      <c r="C111" t="s">
-        <v>2126</v>
       </c>
       <c r="E111" t="s">
         <v>477</v>
@@ -13513,10 +13515,10 @@
         <v>48204</v>
       </c>
       <c r="I111" t="s">
+        <v>2126</v>
+      </c>
+      <c r="K111" t="s">
         <v>2127</v>
-      </c>
-      <c r="K111" t="s">
-        <v>2128</v>
       </c>
       <c r="AB111" t="s">
         <v>56</v>
@@ -13592,10 +13594,10 @@
     </row>
     <row r="113" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
+        <v>1950</v>
+      </c>
+      <c r="C113" t="s">
         <v>1951</v>
-      </c>
-      <c r="C113" t="s">
-        <v>1952</v>
       </c>
       <c r="E113" t="s">
         <v>53</v>
@@ -13607,13 +13609,13 @@
         <v>48208</v>
       </c>
       <c r="H113" t="s">
+        <v>1952</v>
+      </c>
+      <c r="I113" t="s">
         <v>1953</v>
       </c>
-      <c r="I113" t="s">
+      <c r="K113" t="s">
         <v>1954</v>
-      </c>
-      <c r="K113" t="s">
-        <v>1955</v>
       </c>
       <c r="L113" t="s">
         <v>56</v>
@@ -13633,10 +13635,10 @@
     </row>
     <row r="114" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>2189</v>
+      </c>
+      <c r="C114" t="s">
         <v>2190</v>
-      </c>
-      <c r="C114" t="s">
-        <v>2191</v>
       </c>
       <c r="E114" t="s">
         <v>53</v>
@@ -13648,7 +13650,7 @@
         <v>48202</v>
       </c>
       <c r="K114" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="L114" t="s">
         <v>56</v>
@@ -13684,7 +13686,7 @@
         <v>56</v>
       </c>
       <c r="AW114" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="AX114" t="s">
         <v>381</v>
@@ -13692,10 +13694,10 @@
     </row>
     <row r="115" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="C115" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="E115" t="s">
         <v>364</v>
@@ -13707,10 +13709,10 @@
         <v>48036</v>
       </c>
       <c r="I115" t="s">
+        <v>2282</v>
+      </c>
+      <c r="K115" t="s">
         <v>2283</v>
-      </c>
-      <c r="K115" t="s">
-        <v>2284</v>
       </c>
       <c r="L115" t="s">
         <v>56</v>
@@ -13739,10 +13741,10 @@
     </row>
     <row r="116" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
+        <v>2139</v>
+      </c>
+      <c r="C116" t="s">
         <v>2140</v>
-      </c>
-      <c r="C116" t="s">
-        <v>2141</v>
       </c>
       <c r="E116" t="s">
         <v>53</v>
@@ -13754,22 +13756,22 @@
         <v>48235</v>
       </c>
       <c r="I116" t="s">
+        <v>2141</v>
+      </c>
+      <c r="J116" t="s">
         <v>2142</v>
       </c>
-      <c r="J116" t="s">
+      <c r="K116" t="s">
         <v>2143</v>
       </c>
-      <c r="K116" t="s">
+      <c r="AA116" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI116" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY116" t="s">
         <v>2144</v>
-      </c>
-      <c r="AA116" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI116" t="s">
-        <v>56</v>
-      </c>
-      <c r="AY116" t="s">
-        <v>2145</v>
       </c>
     </row>
     <row r="117" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13845,10 +13847,10 @@
     </row>
     <row r="118" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
+        <v>2369</v>
+      </c>
+      <c r="C118" t="s">
         <v>2370</v>
-      </c>
-      <c r="C118" t="s">
-        <v>2371</v>
       </c>
       <c r="E118" t="s">
         <v>146</v>
@@ -13860,13 +13862,13 @@
         <v>48341</v>
       </c>
       <c r="H118" t="s">
+        <v>2371</v>
+      </c>
+      <c r="I118" t="s">
         <v>2372</v>
       </c>
-      <c r="I118" t="s">
-        <v>2373</v>
-      </c>
       <c r="K118" s="3" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="AI118" t="s">
         <v>56</v>
@@ -13880,13 +13882,13 @@
     </row>
     <row r="119" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C119" t="s">
         <v>2381</v>
       </c>
-      <c r="C119" t="s">
+      <c r="E119" t="s">
         <v>2382</v>
-      </c>
-      <c r="E119" t="s">
-        <v>2383</v>
       </c>
       <c r="F119" t="s">
         <v>54</v>
@@ -13895,10 +13897,10 @@
         <v>49418</v>
       </c>
       <c r="I119" t="s">
+        <v>2383</v>
+      </c>
+      <c r="K119" t="s">
         <v>2384</v>
-      </c>
-      <c r="K119" t="s">
-        <v>2385</v>
       </c>
       <c r="AO119" t="s">
         <v>56</v>
@@ -14275,7 +14277,7 @@
         <v>1262</v>
       </c>
       <c r="K126" s="3" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="AM126" t="s">
         <v>56</v>
@@ -14304,7 +14306,7 @@
         <v>114</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="L127" t="s">
         <v>56</v>
@@ -14378,7 +14380,7 @@
         <v>102</v>
       </c>
       <c r="K128" s="3" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="L128" t="s">
         <v>56</v>
@@ -14446,10 +14448,10 @@
         <v>48214</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="K129" s="3" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="AC129" t="s">
         <v>56</v>
@@ -14496,7 +14498,7 @@
         <v>107</v>
       </c>
       <c r="K130" s="3" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="L130" t="s">
         <v>56</v>
@@ -14570,7 +14572,7 @@
         <v>109</v>
       </c>
       <c r="K131" s="3" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="L131" t="s">
         <v>56</v>
@@ -14641,7 +14643,7 @@
         <v>111</v>
       </c>
       <c r="K132" s="3" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="L132" t="s">
         <v>56</v>
@@ -14709,7 +14711,7 @@
         <v>267</v>
       </c>
       <c r="K133" s="3" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="AA133" t="s">
         <v>56</v>
@@ -14738,10 +14740,10 @@
     </row>
     <row r="134" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
+        <v>1910</v>
+      </c>
+      <c r="C134" t="s">
         <v>1911</v>
-      </c>
-      <c r="C134" t="s">
-        <v>1912</v>
       </c>
       <c r="E134" t="s">
         <v>53</v>
@@ -14753,10 +14755,10 @@
         <v>48224</v>
       </c>
       <c r="I134" t="s">
+        <v>1912</v>
+      </c>
+      <c r="K134" t="s">
         <v>1913</v>
-      </c>
-      <c r="K134" t="s">
-        <v>1914</v>
       </c>
       <c r="L134" t="s">
         <v>56</v>
@@ -14818,7 +14820,7 @@
         <v>293</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="L135" t="s">
         <v>56</v>
@@ -14932,10 +14934,10 @@
     </row>
     <row r="138" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
+        <v>2103</v>
+      </c>
+      <c r="C138" t="s">
         <v>2104</v>
-      </c>
-      <c r="C138" t="s">
-        <v>2105</v>
       </c>
       <c r="E138" t="s">
         <v>66</v>
@@ -14947,28 +14949,28 @@
         <v>49503</v>
       </c>
       <c r="I138" t="s">
+        <v>2105</v>
+      </c>
+      <c r="K138" t="s">
         <v>2106</v>
       </c>
-      <c r="K138" t="s">
+      <c r="L138" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA138" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB138" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI138" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ138" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY138" t="s">
         <v>2107</v>
-      </c>
-      <c r="L138" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA138" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB138" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI138" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ138" t="s">
-        <v>56</v>
-      </c>
-      <c r="AY138" t="s">
-        <v>2108</v>
       </c>
     </row>
     <row r="139" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15176,10 +15178,10 @@
     </row>
     <row r="143" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
+        <v>1966</v>
+      </c>
+      <c r="C143" t="s">
         <v>1967</v>
-      </c>
-      <c r="C143" t="s">
-        <v>1968</v>
       </c>
       <c r="E143" t="s">
         <v>1048</v>
@@ -15191,30 +15193,30 @@
         <v>48801</v>
       </c>
       <c r="I143" t="s">
+        <v>1968</v>
+      </c>
+      <c r="K143" t="s">
         <v>1969</v>
       </c>
-      <c r="K143" t="s">
+      <c r="AA143" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ143" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL143" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW143" t="s">
         <v>1970</v>
-      </c>
-      <c r="AA143" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ143" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL143" t="s">
-        <v>56</v>
-      </c>
-      <c r="AW143" t="s">
-        <v>1971</v>
       </c>
     </row>
     <row r="144" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
+        <v>1995</v>
+      </c>
+      <c r="C144" t="s">
         <v>1996</v>
-      </c>
-      <c r="C144" t="s">
-        <v>1997</v>
       </c>
       <c r="E144" t="s">
         <v>508</v>
@@ -15226,13 +15228,13 @@
         <v>48034</v>
       </c>
       <c r="I144" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="J144" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="K144" s="3" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="AA144" t="s">
         <v>56</v>
@@ -15243,10 +15245,10 @@
     </row>
     <row r="145" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="C145" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="E145" t="s">
         <v>402</v>
@@ -15258,10 +15260,10 @@
         <v>49201</v>
       </c>
       <c r="I145" t="s">
+        <v>1972</v>
+      </c>
+      <c r="K145" t="s">
         <v>1973</v>
-      </c>
-      <c r="K145" t="s">
-        <v>1974</v>
       </c>
       <c r="AA145" t="s">
         <v>56</v>
@@ -15281,13 +15283,13 @@
     </row>
     <row r="146" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
+        <v>2010</v>
+      </c>
+      <c r="C146" t="s">
         <v>2011</v>
       </c>
-      <c r="C146" t="s">
-        <v>2012</v>
-      </c>
       <c r="D146" s="2" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="E146" t="s">
         <v>53</v>
@@ -15299,10 +15301,10 @@
         <v>48204</v>
       </c>
       <c r="I146" t="s">
+        <v>2012</v>
+      </c>
+      <c r="K146" t="s">
         <v>2013</v>
-      </c>
-      <c r="K146" t="s">
-        <v>2014</v>
       </c>
       <c r="L146" t="s">
         <v>56</v>
@@ -15355,7 +15357,7 @@
         <v>425</v>
       </c>
       <c r="K147" s="3" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="L147" t="s">
         <v>56</v>
@@ -15458,7 +15460,7 @@
         <v>498</v>
       </c>
       <c r="K149" s="3" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="L149" t="s">
         <v>56</v>
@@ -15511,7 +15513,7 @@
         <v>536</v>
       </c>
       <c r="K150" s="3" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="L150" t="s">
         <v>56</v>
@@ -15582,7 +15584,7 @@
         <v>544</v>
       </c>
       <c r="K151" s="3" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="AJ151" t="s">
         <v>56</v>
@@ -15711,7 +15713,7 @@
         <v>48210</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="K154" t="s">
         <v>590</v>
@@ -16335,7 +16337,7 @@
         <v>49503</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="K166" t="s">
         <v>1076</v>
@@ -16406,7 +16408,7 @@
         <v>853</v>
       </c>
       <c r="C167" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="E167" t="s">
         <v>364</v>
@@ -16583,7 +16585,7 @@
         <v>1194</v>
       </c>
       <c r="K170" s="3" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="L170" t="s">
         <v>56</v>
@@ -16636,13 +16638,13 @@
     </row>
     <row r="171" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="C171" s="2" t="s">
+        <v>2530</v>
+      </c>
+      <c r="D171" s="2" t="s">
         <v>2531</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>2532</v>
       </c>
       <c r="E171" t="s">
         <v>352</v>
@@ -16654,13 +16656,13 @@
         <v>48109</v>
       </c>
       <c r="I171" t="s">
+        <v>1854</v>
+      </c>
+      <c r="J171" s="3" t="s">
+        <v>2532</v>
+      </c>
+      <c r="K171" t="s">
         <v>1855</v>
-      </c>
-      <c r="J171" s="3" t="s">
-        <v>2533</v>
-      </c>
-      <c r="K171" t="s">
-        <v>1856</v>
       </c>
       <c r="AL171" t="s">
         <v>56</v>
@@ -16674,10 +16676,10 @@
         <v>413</v>
       </c>
       <c r="C172" t="s">
+        <v>2474</v>
+      </c>
+      <c r="D172" t="s">
         <v>2475</v>
-      </c>
-      <c r="D172" t="s">
-        <v>2476</v>
       </c>
       <c r="E172" t="s">
         <v>414</v>
@@ -16772,7 +16774,7 @@
         <v>48048</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="J173" t="s">
         <v>417</v>
@@ -16840,10 +16842,10 @@
     </row>
     <row r="174" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C174" t="s">
         <v>2073</v>
-      </c>
-      <c r="C174" t="s">
-        <v>2074</v>
       </c>
       <c r="E174" t="s">
         <v>477</v>
@@ -16855,7 +16857,7 @@
         <v>48089</v>
       </c>
       <c r="I174" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="J174" t="s">
         <v>417</v>
@@ -16950,7 +16952,7 @@
         <v>1493</v>
       </c>
       <c r="K175" s="3" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="AC175" t="s">
         <v>56</v>
@@ -16982,7 +16984,7 @@
         <v>1532</v>
       </c>
       <c r="K176" s="3" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="AI176" t="s">
         <v>1533</v>
@@ -16996,10 +16998,10 @@
     </row>
     <row r="177" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="C177" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="E177" t="s">
         <v>202</v>
@@ -17011,10 +17013,10 @@
         <v>49423</v>
       </c>
       <c r="I177" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="K177" s="3" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="AD177" t="s">
         <v>56</v>
@@ -17087,36 +17089,36 @@
     </row>
     <row r="179" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C179" t="s">
         <v>1757</v>
       </c>
-      <c r="C179" t="s">
-        <v>1758</v>
-      </c>
       <c r="E179" t="s">
+        <v>1759</v>
+      </c>
+      <c r="F179" t="s">
+        <v>54</v>
+      </c>
+      <c r="I179" t="s">
         <v>1760</v>
       </c>
-      <c r="F179" t="s">
-        <v>54</v>
-      </c>
-      <c r="I179" t="s">
+      <c r="K179" s="3" t="s">
+        <v>2552</v>
+      </c>
+      <c r="AA179" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW179" t="s">
         <v>1761</v>
-      </c>
-      <c r="K179" s="3" t="s">
-        <v>2553</v>
-      </c>
-      <c r="AA179" t="s">
-        <v>56</v>
-      </c>
-      <c r="AW179" t="s">
-        <v>1762</v>
       </c>
     </row>
     <row r="180" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C180" t="s">
         <v>1806</v>
-      </c>
-      <c r="C180" t="s">
-        <v>1807</v>
       </c>
       <c r="E180" t="s">
         <v>53</v>
@@ -17128,13 +17130,13 @@
         <v>48234</v>
       </c>
       <c r="I180" t="s">
+        <v>1807</v>
+      </c>
+      <c r="J180" t="s">
         <v>1808</v>
       </c>
-      <c r="J180" t="s">
-        <v>1809</v>
-      </c>
       <c r="K180" s="3" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="AA180" t="s">
         <v>56</v>
@@ -17145,7 +17147,7 @@
         <v>405</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>1618</v>
@@ -17163,7 +17165,7 @@
         <v>407</v>
       </c>
       <c r="K181" s="3" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="AQ181" t="s">
         <v>56</v>
@@ -17192,7 +17194,7 @@
         <v>409</v>
       </c>
       <c r="K182" s="3" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="AQ182" t="s">
         <v>56</v>
@@ -17203,7 +17205,7 @@
     </row>
     <row r="183" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C183" t="s">
         <v>60</v>
@@ -17218,10 +17220,10 @@
         <v>48203</v>
       </c>
       <c r="I183" t="s">
+        <v>2022</v>
+      </c>
+      <c r="K183" t="s">
         <v>2023</v>
-      </c>
-      <c r="K183" t="s">
-        <v>2024</v>
       </c>
       <c r="AC183" t="s">
         <v>56</v>
@@ -17230,15 +17232,15 @@
         <v>95</v>
       </c>
       <c r="AW183" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="184" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
+        <v>2067</v>
+      </c>
+      <c r="C184" t="s">
         <v>2068</v>
-      </c>
-      <c r="C184" t="s">
-        <v>2069</v>
       </c>
       <c r="E184" t="s">
         <v>122</v>
@@ -17250,10 +17252,10 @@
         <v>48198</v>
       </c>
       <c r="I184" t="s">
+        <v>2069</v>
+      </c>
+      <c r="K184" t="s">
         <v>2070</v>
-      </c>
-      <c r="K184" t="s">
-        <v>2071</v>
       </c>
       <c r="L184" t="s">
         <v>56</v>
@@ -17292,15 +17294,15 @@
         <v>56</v>
       </c>
       <c r="AY184" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="185" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
+        <v>2088</v>
+      </c>
+      <c r="C185" t="s">
         <v>2089</v>
-      </c>
-      <c r="C185" t="s">
-        <v>2090</v>
       </c>
       <c r="E185" t="s">
         <v>508</v>
@@ -17312,10 +17314,10 @@
         <v>48076</v>
       </c>
       <c r="I185" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="K185" s="3" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="AF185" t="s">
         <v>56</v>
@@ -17332,10 +17334,10 @@
     </row>
     <row r="186" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
+        <v>2165</v>
+      </c>
+      <c r="C186" t="s">
         <v>2166</v>
-      </c>
-      <c r="C186" t="s">
-        <v>2167</v>
       </c>
       <c r="E186" t="s">
         <v>53</v>
@@ -17347,10 +17349,10 @@
         <v>48205</v>
       </c>
       <c r="I186" t="s">
+        <v>2167</v>
+      </c>
+      <c r="K186" t="s">
         <v>2168</v>
-      </c>
-      <c r="K186" t="s">
-        <v>2169</v>
       </c>
       <c r="L186" t="s">
         <v>56</v>
@@ -17376,13 +17378,13 @@
     </row>
     <row r="187" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
+        <v>2266</v>
+      </c>
+      <c r="C187" t="s">
         <v>2267</v>
       </c>
-      <c r="C187" t="s">
+      <c r="E187" t="s">
         <v>2268</v>
-      </c>
-      <c r="E187" t="s">
-        <v>2269</v>
       </c>
       <c r="F187" t="s">
         <v>54</v>
@@ -17391,10 +17393,10 @@
         <v>48312</v>
       </c>
       <c r="I187" t="s">
+        <v>2269</v>
+      </c>
+      <c r="K187" t="s">
         <v>2270</v>
-      </c>
-      <c r="K187" t="s">
-        <v>2271</v>
       </c>
       <c r="L187" t="s">
         <v>56</v>
@@ -17444,10 +17446,10 @@
     </row>
     <row r="188" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
+        <v>2261</v>
+      </c>
+      <c r="C188" t="s">
         <v>2262</v>
-      </c>
-      <c r="C188" t="s">
-        <v>2263</v>
       </c>
       <c r="E188" t="s">
         <v>352</v>
@@ -17459,10 +17461,10 @@
         <v>48103</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="K188" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="L188" t="s">
         <v>56</v>
@@ -17607,7 +17609,7 @@
         <v>191</v>
       </c>
       <c r="K190" s="3" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="L190" t="s">
         <v>56</v>
@@ -17678,7 +17680,7 @@
         <v>185</v>
       </c>
       <c r="K191" s="3" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="L191" t="s">
         <v>56</v>
@@ -17749,7 +17751,7 @@
         <v>186</v>
       </c>
       <c r="K192" s="3" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="L192" t="s">
         <v>56</v>
@@ -17823,7 +17825,7 @@
         <v>160</v>
       </c>
       <c r="K193" s="3" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="L193" t="s">
         <v>56</v>
@@ -17900,7 +17902,7 @@
         <v>188</v>
       </c>
       <c r="K194" s="3" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="L194" t="s">
         <v>56</v>
@@ -17971,7 +17973,7 @@
         <v>399</v>
       </c>
       <c r="K195" s="3" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="L195" t="s">
         <v>56</v>
@@ -18116,7 +18118,7 @@
         <v>276</v>
       </c>
       <c r="K197" s="3" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="L197" t="s">
         <v>56</v>
@@ -18184,7 +18186,7 @@
         <v>277</v>
       </c>
       <c r="K198" s="3" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="L198" t="s">
         <v>56</v>
@@ -18249,7 +18251,7 @@
         <v>49203</v>
       </c>
       <c r="I199" s="2" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="K199" t="s">
         <v>528</v>
@@ -18320,7 +18322,7 @@
         <v>306</v>
       </c>
       <c r="K200" s="3" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="L200" t="s">
         <v>56</v>
@@ -18450,7 +18452,7 @@
         <v>49503</v>
       </c>
       <c r="I202" s="2" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="K202" t="s">
         <v>431</v>
@@ -18571,7 +18573,7 @@
         <v>980</v>
       </c>
       <c r="K204" s="3" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="AD204" t="s">
         <v>56</v>
@@ -18597,7 +18599,7 @@
         <v>505</v>
       </c>
       <c r="K205" s="3" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="AD205" t="s">
         <v>56</v>
@@ -18626,7 +18628,7 @@
         <v>559</v>
       </c>
       <c r="K206" s="3" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="AD206" t="s">
         <v>56</v>
@@ -18634,7 +18636,7 @@
     </row>
     <row r="207" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="C207" t="s">
         <v>1389</v>
@@ -18652,7 +18654,7 @@
         <v>1390</v>
       </c>
       <c r="K207" s="3" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="L207" t="s">
         <v>56</v>
@@ -18693,10 +18695,10 @@
     </row>
     <row r="208" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="E208" t="s">
         <v>1479</v>
@@ -18708,7 +18710,7 @@
         <v>49677</v>
       </c>
       <c r="K208" s="3" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="AD208" t="s">
         <v>56</v>
@@ -18998,7 +19000,7 @@
         <v>685</v>
       </c>
       <c r="K213" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="AL213" t="s">
         <v>56</v>
@@ -19123,10 +19125,10 @@
     </row>
     <row r="217" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
+        <v>2230</v>
+      </c>
+      <c r="C217" t="s">
         <v>2231</v>
-      </c>
-      <c r="C217" t="s">
-        <v>2232</v>
       </c>
       <c r="E217" t="s">
         <v>53</v>
@@ -19232,7 +19234,7 @@
         <v>681</v>
       </c>
       <c r="K219" s="3" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="L219" t="s">
         <v>56</v>
@@ -19403,7 +19405,7 @@
         <v>991</v>
       </c>
       <c r="K222" s="3" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="AP222" t="s">
         <v>56</v>
@@ -19435,7 +19437,7 @@
         <v>94</v>
       </c>
       <c r="K223" s="3" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="AP223" t="s">
         <v>56</v>
@@ -19467,7 +19469,7 @@
         <v>98</v>
       </c>
       <c r="K224" s="3" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="AP224" t="s">
         <v>56</v>
@@ -19496,7 +19498,7 @@
         <v>730</v>
       </c>
       <c r="K225" s="3" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="AO225" t="s">
         <v>56</v>
@@ -19531,7 +19533,7 @@
         <v>730</v>
       </c>
       <c r="K226" s="3" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="AO226" t="s">
         <v>56</v>
@@ -19563,7 +19565,7 @@
         <v>730</v>
       </c>
       <c r="K227" s="3" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="AO227" t="s">
         <v>56</v>
@@ -19669,7 +19671,7 @@
         <v>841</v>
       </c>
       <c r="K229" s="3" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="L229" t="s">
         <v>56</v>
@@ -19743,7 +19745,7 @@
         <v>835</v>
       </c>
       <c r="K230" s="3" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="AC230" t="s">
         <v>56</v>
@@ -19784,7 +19786,7 @@
         <v>844</v>
       </c>
       <c r="K231" s="3" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="L231" t="s">
         <v>56</v>
@@ -19849,7 +19851,7 @@
         <v>831</v>
       </c>
       <c r="K232" s="3" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="L232" t="s">
         <v>56</v>
@@ -19926,7 +19928,7 @@
         <v>48601</v>
       </c>
       <c r="I233" s="2" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="K233" t="s">
         <v>826</v>
@@ -20043,10 +20045,10 @@
         <v>1186</v>
       </c>
       <c r="C236" t="s">
+        <v>2476</v>
+      </c>
+      <c r="D236" t="s">
         <v>2477</v>
-      </c>
-      <c r="D236" t="s">
-        <v>2478</v>
       </c>
       <c r="E236" t="s">
         <v>1184</v>
@@ -20058,7 +20060,7 @@
         <v>48413</v>
       </c>
       <c r="I236" s="2" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="K236" t="s">
         <v>1187</v>
@@ -20087,7 +20089,7 @@
         <v>1649</v>
       </c>
       <c r="K237" s="3" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="L237" t="s">
         <v>56</v>
@@ -20104,10 +20106,10 @@
     </row>
     <row r="238" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
+        <v>2308</v>
+      </c>
+      <c r="C238" t="s">
         <v>2309</v>
-      </c>
-      <c r="C238" t="s">
-        <v>2310</v>
       </c>
       <c r="E238" t="s">
         <v>66</v>
@@ -20119,10 +20121,10 @@
         <v>49507</v>
       </c>
       <c r="I238" t="s">
+        <v>2310</v>
+      </c>
+      <c r="K238" t="s">
         <v>2311</v>
-      </c>
-      <c r="K238" t="s">
-        <v>2312</v>
       </c>
       <c r="L238" t="s">
         <v>56</v>
@@ -20252,7 +20254,7 @@
         <v>938</v>
       </c>
       <c r="K240" s="3" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="AB240" t="s">
         <v>56</v>
@@ -20378,7 +20380,7 @@
         <v>943</v>
       </c>
       <c r="C243" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="E243" t="s">
         <v>944</v>
@@ -20422,7 +20424,7 @@
         <v>950</v>
       </c>
       <c r="K244" s="3" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="AA244" t="s">
         <v>56</v>
@@ -20430,25 +20432,25 @@
     </row>
     <row r="245" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
+        <v>2115</v>
+      </c>
+      <c r="C245" t="s">
         <v>2116</v>
-      </c>
-      <c r="C245" t="s">
-        <v>2117</v>
       </c>
       <c r="E245" t="s">
         <v>477</v>
       </c>
       <c r="F245" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="G245">
         <v>48089</v>
       </c>
       <c r="I245" t="s">
+        <v>2118</v>
+      </c>
+      <c r="K245" t="s">
         <v>2119</v>
-      </c>
-      <c r="K245" t="s">
-        <v>2120</v>
       </c>
       <c r="L245" t="s">
         <v>56</v>
@@ -20495,7 +20497,7 @@
         <v>510</v>
       </c>
       <c r="K246" s="3" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="AB246" t="s">
         <v>56</v>
@@ -20521,7 +20523,7 @@
         <v>48604</v>
       </c>
       <c r="I247" s="6" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="K247" t="s">
         <v>1010</v>
@@ -20695,7 +20697,7 @@
         <v>1367</v>
       </c>
       <c r="K250" s="3" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="AF250" t="s">
         <v>56</v>
@@ -20724,7 +20726,7 @@
         <v>1041</v>
       </c>
       <c r="K251" s="3" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="AP251" t="s">
         <v>56</v>
@@ -20803,13 +20805,13 @@
     </row>
     <row r="253" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C253" t="s">
         <v>1869</v>
       </c>
-      <c r="C253" t="s">
+      <c r="D253" t="s">
         <v>1870</v>
-      </c>
-      <c r="D253" t="s">
-        <v>1871</v>
       </c>
       <c r="E253" t="s">
         <v>1563</v>
@@ -20821,10 +20823,10 @@
         <v>48150</v>
       </c>
       <c r="I253" t="s">
+        <v>1871</v>
+      </c>
+      <c r="K253" t="s">
         <v>1872</v>
-      </c>
-      <c r="K253" t="s">
-        <v>1873</v>
       </c>
       <c r="AD253" t="s">
         <v>56</v>
@@ -20838,7 +20840,7 @@
         <v>1625</v>
       </c>
       <c r="C254" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="D254" t="s">
         <v>397</v>
@@ -20885,7 +20887,7 @@
         <v>520</v>
       </c>
       <c r="K255" s="3" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="AI255" t="s">
         <v>56</v>
@@ -20917,7 +20919,7 @@
         <v>1212</v>
       </c>
       <c r="K256" s="3" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="L256" t="s">
         <v>56</v>
@@ -20973,7 +20975,7 @@
         <v>49201</v>
       </c>
       <c r="I257" s="2" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="K257" t="s">
         <v>1234</v>
@@ -21064,7 +21066,7 @@
         <v>1321</v>
       </c>
       <c r="K259" s="3" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="AF259" t="s">
         <v>56</v>
@@ -21099,7 +21101,7 @@
         <v>49242</v>
       </c>
       <c r="I260" s="2" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="K260" s="3" t="s">
         <v>1332</v>
@@ -21125,7 +21127,7 @@
         <v>49202</v>
       </c>
       <c r="I261" s="2" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="K261" t="s">
         <v>1332</v>
@@ -21187,7 +21189,7 @@
         <v>1277</v>
       </c>
       <c r="K262" s="3" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="AK262" t="s">
         <v>56</v>
@@ -21213,7 +21215,7 @@
         <v>1279</v>
       </c>
       <c r="K263" s="3" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="AK263" t="s">
         <v>56</v>
@@ -21239,7 +21241,7 @@
         <v>1281</v>
       </c>
       <c r="K264" s="3" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="AC264" t="s">
         <v>56</v>
@@ -21294,7 +21296,7 @@
         <v>48066</v>
       </c>
       <c r="I266" s="2" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="K266" t="s">
         <v>1457</v>
@@ -21423,10 +21425,10 @@
         <v>1401</v>
       </c>
       <c r="C269" t="s">
+        <v>2480</v>
+      </c>
+      <c r="D269" t="s">
         <v>2481</v>
-      </c>
-      <c r="D269" t="s">
-        <v>2482</v>
       </c>
       <c r="E269" t="s">
         <v>66</v>
@@ -21441,7 +21443,7 @@
         <v>1402</v>
       </c>
       <c r="K269" s="3" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="AC269" t="s">
         <v>56</v>
@@ -21467,7 +21469,7 @@
         <v>1405</v>
       </c>
       <c r="K270" s="3" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="AC270" t="s">
         <v>56</v>
@@ -21493,7 +21495,7 @@
         <v>1435</v>
       </c>
       <c r="K271" s="3" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="AF271" t="s">
         <v>56</v>
@@ -21519,7 +21521,7 @@
         <v>48198</v>
       </c>
       <c r="I272" s="2" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="K272" t="s">
         <v>646</v>
@@ -21578,7 +21580,7 @@
         <v>633</v>
       </c>
       <c r="K273" s="3" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="AC273" t="s">
         <v>56</v>
@@ -21675,7 +21677,7 @@
         <v>49507</v>
       </c>
       <c r="I275" s="2" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="K275" t="s">
         <v>640</v>
@@ -21802,7 +21804,7 @@
         <v>1061</v>
       </c>
       <c r="K277" s="3" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="L277" t="s">
         <v>56</v>
@@ -21929,7 +21931,7 @@
         <v>49242</v>
       </c>
       <c r="I279" s="2" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="K279" s="3" t="s">
         <v>1460</v>
@@ -22109,7 +22111,7 @@
         <v>549</v>
       </c>
       <c r="K282" s="3" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="L282" t="s">
         <v>56</v>
@@ -22147,16 +22149,16 @@
     </row>
     <row r="283" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="C283" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="D283" t="s">
         <v>1562</v>
       </c>
       <c r="E283" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="F283" t="s">
         <v>54</v>
@@ -22165,10 +22167,10 @@
         <v>49417</v>
       </c>
       <c r="I283" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="K283" s="3" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="AC283" t="s">
         <v>56</v>
@@ -22176,10 +22178,10 @@
     </row>
     <row r="284" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="C284" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="E284" t="s">
         <v>202</v>
@@ -22191,10 +22193,10 @@
         <v>49424</v>
       </c>
       <c r="I284" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="K284" s="3" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="AC284" t="s">
         <v>56</v>
@@ -22202,13 +22204,13 @@
     </row>
     <row r="285" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="C285" t="s">
+        <v>1785</v>
+      </c>
+      <c r="E285" t="s">
         <v>1786</v>
-      </c>
-      <c r="E285" t="s">
-        <v>1787</v>
       </c>
       <c r="F285" t="s">
         <v>54</v>
@@ -22217,10 +22219,10 @@
         <v>49426</v>
       </c>
       <c r="I285" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="K285" s="3" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="AC285" t="s">
         <v>56</v>
@@ -22415,7 +22417,7 @@
         <v>1599</v>
       </c>
       <c r="K291" s="3" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="L291" t="s">
         <v>56</v>
@@ -22627,10 +22629,10 @@
     </row>
     <row r="295" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C295" t="s">
         <v>1742</v>
-      </c>
-      <c r="C295" t="s">
-        <v>1743</v>
       </c>
       <c r="E295" t="s">
         <v>280</v>
@@ -22642,10 +22644,10 @@
         <v>48602</v>
       </c>
       <c r="I295" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="K295" s="3" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="AA295" t="s">
         <v>56</v>
@@ -22656,13 +22658,13 @@
     </row>
     <row r="296" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C296" t="s">
         <v>1791</v>
       </c>
-      <c r="C296" t="s">
+      <c r="D296" t="s">
         <v>1792</v>
-      </c>
-      <c r="D296" t="s">
-        <v>1793</v>
       </c>
       <c r="E296" t="s">
         <v>53</v>
@@ -22674,10 +22676,10 @@
         <v>48208</v>
       </c>
       <c r="I296" t="s">
+        <v>1793</v>
+      </c>
+      <c r="K296" t="s">
         <v>1794</v>
-      </c>
-      <c r="K296" t="s">
-        <v>1795</v>
       </c>
       <c r="AD296" t="s">
         <v>56</v>
@@ -22691,10 +22693,10 @@
     </row>
     <row r="297" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C297" t="s">
         <v>1814</v>
-      </c>
-      <c r="C297" t="s">
-        <v>1815</v>
       </c>
       <c r="E297" t="s">
         <v>53</v>
@@ -22706,7 +22708,7 @@
         <v>48210</v>
       </c>
       <c r="K297" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="AA297" t="s">
         <v>56</v>
@@ -22720,10 +22722,10 @@
     </row>
     <row r="298" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C298" t="s">
         <v>1829</v>
-      </c>
-      <c r="C298" t="s">
-        <v>1830</v>
       </c>
       <c r="E298" t="s">
         <v>66</v>
@@ -22735,10 +22737,10 @@
         <v>49503</v>
       </c>
       <c r="I298" s="2" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="K298" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="L298" t="s">
         <v>56</v>
@@ -22782,10 +22784,10 @@
     </row>
     <row r="299" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C299" t="s">
         <v>1834</v>
-      </c>
-      <c r="C299" t="s">
-        <v>1835</v>
       </c>
       <c r="E299" t="s">
         <v>53</v>
@@ -22797,10 +22799,10 @@
         <v>48083</v>
       </c>
       <c r="I299" s="2" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="K299" s="3" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="AO299" t="s">
         <v>56</v>
@@ -22808,10 +22810,10 @@
     </row>
     <row r="300" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C300" t="s">
         <v>1874</v>
-      </c>
-      <c r="C300" t="s">
-        <v>1875</v>
       </c>
       <c r="E300" t="s">
         <v>53</v>
@@ -22823,13 +22825,13 @@
         <v>48226</v>
       </c>
       <c r="I300" t="s">
+        <v>1875</v>
+      </c>
+      <c r="J300" t="s">
         <v>1876</v>
       </c>
-      <c r="J300" t="s">
-        <v>1877</v>
-      </c>
       <c r="K300" s="3" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="L300" t="s">
         <v>56</v>
@@ -22873,10 +22875,10 @@
     </row>
     <row r="301" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C301" t="s">
         <v>2237</v>
-      </c>
-      <c r="C301" t="s">
-        <v>2238</v>
       </c>
       <c r="E301" t="s">
         <v>66</v>
@@ -22888,24 +22890,24 @@
         <v>49503</v>
       </c>
       <c r="I301" t="s">
+        <v>2238</v>
+      </c>
+      <c r="K301" t="s">
         <v>2239</v>
       </c>
-      <c r="K301" t="s">
+      <c r="AE301" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY301" t="s">
         <v>2240</v>
-      </c>
-      <c r="AE301" t="s">
-        <v>56</v>
-      </c>
-      <c r="AY301" t="s">
-        <v>2241</v>
       </c>
     </row>
     <row r="302" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
+        <v>1925</v>
+      </c>
+      <c r="C302" t="s">
         <v>1926</v>
-      </c>
-      <c r="C302" t="s">
-        <v>1927</v>
       </c>
       <c r="E302" t="s">
         <v>352</v>
@@ -22917,10 +22919,10 @@
         <v>48105</v>
       </c>
       <c r="I302" s="2" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="K302" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="L302" t="s">
         <v>56</v>
@@ -22970,10 +22972,10 @@
     </row>
     <row r="303" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="C303" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="E303" t="s">
         <v>280</v>
@@ -22985,10 +22987,10 @@
         <v>48602</v>
       </c>
       <c r="I303" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="K303" s="3" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="AA303" t="s">
         <v>56</v>
@@ -23002,10 +23004,10 @@
     </row>
     <row r="304" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
+        <v>1981</v>
+      </c>
+      <c r="C304" t="s">
         <v>1982</v>
-      </c>
-      <c r="C304" t="s">
-        <v>1983</v>
       </c>
       <c r="E304" t="s">
         <v>477</v>
@@ -23017,10 +23019,10 @@
         <v>48019</v>
       </c>
       <c r="I304" t="s">
+        <v>1983</v>
+      </c>
+      <c r="K304" t="s">
         <v>1984</v>
-      </c>
-      <c r="K304" t="s">
-        <v>1985</v>
       </c>
       <c r="L304" t="s">
         <v>56</v>
@@ -23064,10 +23066,10 @@
     </row>
     <row r="305" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C305" t="s">
         <v>2080</v>
-      </c>
-      <c r="C305" t="s">
-        <v>2081</v>
       </c>
       <c r="E305" t="s">
         <v>1575</v>
@@ -23079,16 +23081,16 @@
         <v>48180</v>
       </c>
       <c r="H305" t="s">
+        <v>2081</v>
+      </c>
+      <c r="I305" t="s">
         <v>2082</v>
       </c>
-      <c r="I305" t="s">
+      <c r="J305" t="s">
         <v>2083</v>
       </c>
-      <c r="J305" t="s">
-        <v>2084</v>
-      </c>
       <c r="K305" s="3" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="L305" t="s">
         <v>56</v>
@@ -23141,10 +23143,10 @@
     </row>
     <row r="306" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
+        <v>2052</v>
+      </c>
+      <c r="C306" t="s">
         <v>2053</v>
-      </c>
-      <c r="C306" t="s">
-        <v>2054</v>
       </c>
       <c r="E306" t="s">
         <v>53</v>
@@ -23156,13 +23158,13 @@
         <v>48235</v>
       </c>
       <c r="H306" t="s">
+        <v>2054</v>
+      </c>
+      <c r="I306" t="s">
         <v>2055</v>
       </c>
-      <c r="I306" t="s">
+      <c r="K306" t="s">
         <v>2056</v>
-      </c>
-      <c r="K306" t="s">
-        <v>2057</v>
       </c>
       <c r="L306" t="s">
         <v>56</v>
@@ -23182,10 +23184,10 @@
     </row>
     <row r="307" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
+        <v>2063</v>
+      </c>
+      <c r="C307" t="s">
         <v>2064</v>
-      </c>
-      <c r="C307" t="s">
-        <v>2065</v>
       </c>
       <c r="E307" t="s">
         <v>66</v>
@@ -23197,10 +23199,10 @@
         <v>49525</v>
       </c>
       <c r="I307" t="s">
+        <v>2065</v>
+      </c>
+      <c r="K307" t="s">
         <v>2066</v>
-      </c>
-      <c r="K307" t="s">
-        <v>2067</v>
       </c>
       <c r="L307" t="s">
         <v>56</v>
@@ -23244,7 +23246,7 @@
         <v>1188</v>
       </c>
       <c r="C308" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="E308" t="s">
         <v>280</v>
@@ -23256,13 +23258,13 @@
         <v>48601</v>
       </c>
       <c r="H308" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="I308" t="s">
         <v>1189</v>
       </c>
       <c r="K308" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="AA308" t="s">
         <v>56</v>
@@ -23271,10 +23273,10 @@
         <v>1190</v>
       </c>
       <c r="AX308" t="s">
+        <v>2455</v>
+      </c>
+      <c r="AY308" t="s">
         <v>2456</v>
-      </c>
-      <c r="AY308" t="s">
-        <v>2457</v>
       </c>
     </row>
     <row r="309" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -23285,10 +23287,10 @@
         <v>209</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="E309" t="s">
         <v>210</v>
@@ -23303,7 +23305,7 @@
         <v>211</v>
       </c>
       <c r="K309" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="AM309" t="s">
         <v>56</v>
@@ -23355,10 +23357,10 @@
     </row>
     <row r="311" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
+        <v>2241</v>
+      </c>
+      <c r="C311" t="s">
         <v>2242</v>
-      </c>
-      <c r="C311" t="s">
-        <v>2243</v>
       </c>
       <c r="E311" t="s">
         <v>352</v>
@@ -23370,10 +23372,10 @@
         <v>48104</v>
       </c>
       <c r="I311" s="2" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="K311" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="AE311" t="s">
         <v>56</v>
@@ -23384,10 +23386,10 @@
     </row>
     <row r="312" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
+        <v>2301</v>
+      </c>
+      <c r="C312" t="s">
         <v>2302</v>
-      </c>
-      <c r="C312" t="s">
-        <v>2303</v>
       </c>
       <c r="E312" t="s">
         <v>1447</v>
@@ -23399,10 +23401,10 @@
         <v>48723</v>
       </c>
       <c r="I312" t="s">
+        <v>2303</v>
+      </c>
+      <c r="K312" t="s">
         <v>2304</v>
-      </c>
-      <c r="K312" t="s">
-        <v>2305</v>
       </c>
       <c r="AC312" t="s">
         <v>56</v>
@@ -23416,13 +23418,13 @@
     </row>
     <row r="313" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
+        <v>2330</v>
+      </c>
+      <c r="C313" t="s">
         <v>2331</v>
       </c>
-      <c r="C313" t="s">
+      <c r="E313" t="s">
         <v>2332</v>
-      </c>
-      <c r="E313" t="s">
-        <v>2333</v>
       </c>
       <c r="F313" t="s">
         <v>54</v>
@@ -23431,10 +23433,10 @@
         <v>48169</v>
       </c>
       <c r="I313" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="K313" s="9" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="L313" t="s">
         <v>56</v>
@@ -23455,18 +23457,18 @@
         <v>56</v>
       </c>
       <c r="AY313" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="314" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="C314" t="s">
+        <v>2478</v>
+      </c>
+      <c r="D314" t="s">
         <v>2479</v>
-      </c>
-      <c r="D314" t="s">
-        <v>2480</v>
       </c>
       <c r="E314" t="s">
         <v>280</v>
@@ -23478,10 +23480,10 @@
         <v>48607</v>
       </c>
       <c r="I314" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="K314" s="3" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="AC314" t="s">
         <v>56</v>
@@ -23492,13 +23494,13 @@
     </row>
     <row r="315" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
+        <v>2312</v>
+      </c>
+      <c r="C315" t="s">
         <v>2313</v>
       </c>
-      <c r="C315" t="s">
+      <c r="D315" t="s">
         <v>2314</v>
-      </c>
-      <c r="D315" t="s">
-        <v>2315</v>
       </c>
       <c r="E315" t="s">
         <v>53</v>
@@ -23510,10 +23512,10 @@
         <v>48226</v>
       </c>
       <c r="I315" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="K315" s="3" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="L315" t="s">
         <v>56</v>
@@ -23558,15 +23560,15 @@
         <v>56</v>
       </c>
       <c r="AW315" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="316" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C316" t="s">
         <v>2352</v>
-      </c>
-      <c r="C316" t="s">
-        <v>2353</v>
       </c>
       <c r="E316" t="s">
         <v>122</v>
@@ -23578,10 +23580,10 @@
         <v>48198</v>
       </c>
       <c r="I316" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="K316" s="3" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="L316" t="s">
         <v>56</v>
@@ -23655,7 +23657,7 @@
         <v>1561</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="D318" t="s">
         <v>1562</v>
@@ -23716,10 +23718,10 @@
     </row>
     <row r="320" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C320" t="s">
         <v>1738</v>
-      </c>
-      <c r="C320" t="s">
-        <v>1739</v>
       </c>
       <c r="D320" t="s">
         <v>1562</v>
@@ -23731,7 +23733,7 @@
         <v>54</v>
       </c>
       <c r="I320" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="AC320" t="s">
         <v>56</v>
@@ -23739,13 +23741,13 @@
     </row>
     <row r="321" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C321" t="s">
         <v>1879</v>
       </c>
-      <c r="C321" t="s">
+      <c r="D321" t="s">
         <v>1880</v>
-      </c>
-      <c r="D321" t="s">
-        <v>1881</v>
       </c>
       <c r="E321" t="s">
         <v>637</v>
@@ -23757,7 +23759,7 @@
         <v>48732</v>
       </c>
       <c r="I321" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="AC321" t="s">
         <v>56</v>
@@ -23841,13 +23843,13 @@
     </row>
     <row r="324" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
+        <v>2287</v>
+      </c>
+      <c r="C324" t="s">
         <v>2288</v>
       </c>
-      <c r="C324" t="s">
+      <c r="D324" t="s">
         <v>2289</v>
-      </c>
-      <c r="D324" t="s">
-        <v>2290</v>
       </c>
       <c r="E324" t="s">
         <v>210</v>
@@ -23859,7 +23861,7 @@
         <v>48083</v>
       </c>
       <c r="I324" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="AF324" t="s">
         <v>56</v>
@@ -23996,16 +23998,16 @@
     </row>
     <row r="328" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
+        <v>2271</v>
+      </c>
+      <c r="C328" t="s">
         <v>2272</v>
       </c>
-      <c r="C328" t="s">
-        <v>2273</v>
-      </c>
       <c r="D328" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="E328" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="F328" t="s">
         <v>54</v>
@@ -24014,10 +24016,10 @@
         <v>48867</v>
       </c>
       <c r="I328" t="s">
+        <v>2273</v>
+      </c>
+      <c r="J328" t="s">
         <v>2274</v>
-      </c>
-      <c r="J328" t="s">
-        <v>2275</v>
       </c>
       <c r="L328" t="s">
         <v>56</v>
@@ -24059,21 +24061,21 @@
         <v>56</v>
       </c>
       <c r="AW328" t="s">
+        <v>2275</v>
+      </c>
+      <c r="AX328" t="s">
         <v>2276</v>
-      </c>
-      <c r="AX328" t="s">
-        <v>2277</v>
       </c>
     </row>
     <row r="329" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C329" t="s">
         <v>1763</v>
       </c>
-      <c r="C329" t="s">
+      <c r="D329" t="s">
         <v>1764</v>
-      </c>
-      <c r="D329" t="s">
-        <v>1765</v>
       </c>
       <c r="E329" t="s">
         <v>53</v>
@@ -24085,13 +24087,13 @@
         <v>48201</v>
       </c>
       <c r="H329" t="s">
+        <v>1765</v>
+      </c>
+      <c r="I329" t="s">
         <v>1766</v>
       </c>
-      <c r="I329" t="s">
+      <c r="J329" t="s">
         <v>1767</v>
-      </c>
-      <c r="J329" t="s">
-        <v>1768</v>
       </c>
       <c r="AO329" t="s">
         <v>56</v>
@@ -24103,7 +24105,7 @@
         <v>95</v>
       </c>
       <c r="AW329" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="330" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -24140,13 +24142,13 @@
     </row>
     <row r="331" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C331" t="s">
         <v>1745</v>
       </c>
-      <c r="C331" t="s">
+      <c r="D331" t="s">
         <v>1746</v>
-      </c>
-      <c r="D331" t="s">
-        <v>1747</v>
       </c>
       <c r="E331" t="s">
         <v>356</v>
@@ -24158,19 +24160,19 @@
         <v>48502</v>
       </c>
       <c r="I331" t="s">
+        <v>1747</v>
+      </c>
+      <c r="AH331" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ331" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW331" t="s">
         <v>1748</v>
       </c>
-      <c r="AH331" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ331" t="s">
-        <v>56</v>
-      </c>
-      <c r="AW331" t="s">
+      <c r="AX331" t="s">
         <v>1749</v>
-      </c>
-      <c r="AX331" t="s">
-        <v>1750</v>
       </c>
     </row>
     <row r="332" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -24233,13 +24235,13 @@
     </row>
     <row r="334" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
+        <v>2084</v>
+      </c>
+      <c r="C334" t="s">
         <v>2085</v>
       </c>
-      <c r="C334" t="s">
+      <c r="D334" t="s">
         <v>2086</v>
-      </c>
-      <c r="D334" t="s">
-        <v>2087</v>
       </c>
       <c r="E334" t="s">
         <v>508</v>
@@ -24251,7 +24253,7 @@
         <v>48076</v>
       </c>
       <c r="I334" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="AF334" t="s">
         <v>56</v>
@@ -24268,7 +24270,7 @@
         <v>1712</v>
       </c>
       <c r="C335" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="D335" t="s">
         <v>840</v>
@@ -24283,7 +24285,7 @@
         <v>48307</v>
       </c>
       <c r="I335" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="AD335" t="s">
         <v>56</v>
@@ -24356,13 +24358,13 @@
     </row>
     <row r="337" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
+        <v>2253</v>
+      </c>
+      <c r="C337" t="s">
         <v>2254</v>
       </c>
-      <c r="C337" t="s">
+      <c r="D337" t="s">
         <v>2255</v>
-      </c>
-      <c r="D337" t="s">
-        <v>2256</v>
       </c>
       <c r="E337" t="s">
         <v>53</v>
@@ -24374,10 +24376,10 @@
         <v>48221</v>
       </c>
       <c r="I337" t="s">
+        <v>2256</v>
+      </c>
+      <c r="J337" t="s">
         <v>2257</v>
-      </c>
-      <c r="J337" t="s">
-        <v>2258</v>
       </c>
       <c r="AD337" t="s">
         <v>56</v>
@@ -24391,13 +24393,13 @@
     </row>
     <row r="338" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
+        <v>2340</v>
+      </c>
+      <c r="C338" t="s">
         <v>2341</v>
       </c>
-      <c r="C338" t="s">
+      <c r="D338" t="s">
         <v>2342</v>
-      </c>
-      <c r="D338" t="s">
-        <v>2343</v>
       </c>
       <c r="E338" t="s">
         <v>53</v>
@@ -24409,16 +24411,16 @@
         <v>48202</v>
       </c>
       <c r="I338" t="s">
+        <v>2343</v>
+      </c>
+      <c r="AJ338" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW338" t="s">
+        <v>2316</v>
+      </c>
+      <c r="AX338" t="s">
         <v>2344</v>
-      </c>
-      <c r="AJ338" t="s">
-        <v>56</v>
-      </c>
-      <c r="AW338" t="s">
-        <v>2317</v>
-      </c>
-      <c r="AX338" t="s">
-        <v>2345</v>
       </c>
     </row>
     <row r="339" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -24455,7 +24457,7 @@
         <v>145</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="E340" t="s">
         <v>146</v>
@@ -24525,13 +24527,13 @@
         <v>1712</v>
       </c>
       <c r="C342" s="2" t="s">
+        <v>1719</v>
+      </c>
+      <c r="D342" t="s">
         <v>1720</v>
       </c>
-      <c r="D342" t="s">
-        <v>1721</v>
-      </c>
       <c r="E342" s="2" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="F342" t="s">
         <v>54</v>
@@ -24540,7 +24542,7 @@
         <v>48390</v>
       </c>
       <c r="I342" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="AD342" t="s">
         <v>56</v>
@@ -24635,10 +24637,10 @@
         <v>1307</v>
       </c>
       <c r="C346" t="s">
+        <v>2482</v>
+      </c>
+      <c r="D346" t="s">
         <v>2483</v>
-      </c>
-      <c r="D346" t="s">
-        <v>2484</v>
       </c>
       <c r="E346" t="s">
         <v>280</v>
@@ -24707,13 +24709,13 @@
     </row>
     <row r="349" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C349" t="s">
+        <v>2447</v>
+      </c>
+      <c r="D349" t="s">
         <v>1859</v>
-      </c>
-      <c r="C349" t="s">
-        <v>2448</v>
-      </c>
-      <c r="D349" t="s">
-        <v>1860</v>
       </c>
       <c r="E349" t="s">
         <v>53</v>
@@ -24725,10 +24727,10 @@
         <v>48226</v>
       </c>
       <c r="H349" t="s">
+        <v>1860</v>
+      </c>
+      <c r="I349" t="s">
         <v>1861</v>
-      </c>
-      <c r="I349" t="s">
-        <v>1862</v>
       </c>
       <c r="L349" t="s">
         <v>56</v>
@@ -24776,7 +24778,7 @@
         <v>95</v>
       </c>
       <c r="AW349" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="350" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -24784,10 +24786,10 @@
         <v>382</v>
       </c>
       <c r="C350" t="s">
+        <v>2472</v>
+      </c>
+      <c r="D350" t="s">
         <v>2473</v>
-      </c>
-      <c r="D350" t="s">
-        <v>2474</v>
       </c>
       <c r="E350" t="s">
         <v>146</v>
@@ -24916,10 +24918,10 @@
     </row>
     <row r="353" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C353" t="s">
         <v>1757</v>
-      </c>
-      <c r="C353" t="s">
-        <v>1758</v>
       </c>
       <c r="E353" t="s">
         <v>387</v>
@@ -24931,7 +24933,7 @@
         <v>48067</v>
       </c>
       <c r="I353" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="AA353" t="s">
         <v>56</v>
@@ -25003,13 +25005,13 @@
     </row>
     <row r="356" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
+        <v>2213</v>
+      </c>
+      <c r="C356" t="s">
         <v>2214</v>
       </c>
-      <c r="C356" t="s">
-        <v>2215</v>
-      </c>
       <c r="E356" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="F356" t="s">
         <v>54</v>
@@ -25018,7 +25020,7 @@
         <v>48071</v>
       </c>
       <c r="I356" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="AA356" t="s">
         <v>56</v>
@@ -25029,16 +25031,16 @@
     </row>
     <row r="357" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B357" t="s">
         <v>2424</v>
       </c>
-      <c r="B357" t="s">
+      <c r="C357" t="s">
         <v>2425</v>
       </c>
-      <c r="C357" t="s">
+      <c r="E357" t="s">
         <v>2426</v>
-      </c>
-      <c r="E357" t="s">
-        <v>2427</v>
       </c>
       <c r="F357" t="s">
         <v>54</v>
@@ -25047,7 +25049,7 @@
         <v>48072</v>
       </c>
       <c r="I357" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="AA357" t="s">
         <v>56</v>
@@ -25055,10 +25057,10 @@
     </row>
     <row r="358" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
+        <v>2419</v>
+      </c>
+      <c r="C358" t="s">
         <v>2420</v>
-      </c>
-      <c r="C358" t="s">
-        <v>2421</v>
       </c>
       <c r="E358" t="s">
         <v>387</v>
@@ -25070,10 +25072,10 @@
         <v>48073</v>
       </c>
       <c r="I358" t="s">
+        <v>2421</v>
+      </c>
+      <c r="J358" t="s">
         <v>2422</v>
-      </c>
-      <c r="J358" t="s">
-        <v>2423</v>
       </c>
       <c r="AA358" t="s">
         <v>56</v>
@@ -25084,13 +25086,13 @@
     </row>
     <row r="359" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
+        <v>2007</v>
+      </c>
+      <c r="C359" t="s">
         <v>2008</v>
       </c>
-      <c r="C359" t="s">
+      <c r="E359" t="s">
         <v>2009</v>
-      </c>
-      <c r="E359" t="s">
-        <v>2010</v>
       </c>
       <c r="F359" t="s">
         <v>54</v>
@@ -25099,7 +25101,7 @@
         <v>48073</v>
       </c>
       <c r="I359" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="AA359" t="s">
         <v>56</v>
@@ -25110,10 +25112,10 @@
     </row>
     <row r="360" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
+        <v>2366</v>
+      </c>
+      <c r="C360" t="s">
         <v>2367</v>
-      </c>
-      <c r="C360" t="s">
-        <v>2368</v>
       </c>
       <c r="E360" t="s">
         <v>508</v>
@@ -25125,7 +25127,7 @@
         <v>48075</v>
       </c>
       <c r="I360" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="AJ360" t="s">
         <v>56</v>
@@ -25177,7 +25179,7 @@
         <v>48083</v>
       </c>
       <c r="I362" s="2" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="AC362" t="s">
         <v>56</v>
@@ -25208,10 +25210,10 @@
     </row>
     <row r="364" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
+        <v>2291</v>
+      </c>
+      <c r="C364" t="s">
         <v>2292</v>
-      </c>
-      <c r="C364" t="s">
-        <v>2293</v>
       </c>
       <c r="E364" t="s">
         <v>210</v>
@@ -25223,7 +25225,7 @@
         <v>48084</v>
       </c>
       <c r="I364" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="AF364" t="s">
         <v>56</v>
@@ -25463,7 +25465,7 @@
         <v>48154</v>
       </c>
       <c r="I370" s="2" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="AD370" t="s">
         <v>56</v>
@@ -25494,10 +25496,10 @@
     </row>
     <row r="372" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
+        <v>2159</v>
+      </c>
+      <c r="C372" t="s">
         <v>2160</v>
-      </c>
-      <c r="C372" t="s">
-        <v>2161</v>
       </c>
       <c r="E372" t="s">
         <v>1464</v>
@@ -25509,7 +25511,7 @@
         <v>48161</v>
       </c>
       <c r="I372" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="AI372" t="s">
         <v>56</v>
@@ -25520,10 +25522,10 @@
     </row>
     <row r="373" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="C373" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="E373" t="s">
         <v>1464</v>
@@ -25535,7 +25537,7 @@
         <v>48161</v>
       </c>
       <c r="I373" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="AA373" t="s">
         <v>56</v>
@@ -25604,10 +25606,10 @@
     </row>
     <row r="376" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
+        <v>2363</v>
+      </c>
+      <c r="C376" t="s">
         <v>2364</v>
-      </c>
-      <c r="C376" t="s">
-        <v>2365</v>
       </c>
       <c r="E376" t="s">
         <v>53</v>
@@ -25619,7 +25621,7 @@
         <v>48201</v>
       </c>
       <c r="I376" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="AC376" t="s">
         <v>56</v>
@@ -25627,10 +25629,10 @@
     </row>
     <row r="377" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
+        <v>2357</v>
+      </c>
+      <c r="C377" t="s">
         <v>2358</v>
-      </c>
-      <c r="C377" t="s">
-        <v>2359</v>
       </c>
       <c r="E377" t="s">
         <v>53</v>
@@ -25642,7 +25644,7 @@
         <v>48201</v>
       </c>
       <c r="I377" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="AC377" t="s">
         <v>56</v>
@@ -25657,15 +25659,15 @@
         <v>56</v>
       </c>
       <c r="AW377" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="378" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
+        <v>2321</v>
+      </c>
+      <c r="C378" t="s">
         <v>2322</v>
-      </c>
-      <c r="C378" t="s">
-        <v>2323</v>
       </c>
       <c r="E378" t="s">
         <v>53</v>
@@ -25677,24 +25679,24 @@
         <v>48201</v>
       </c>
       <c r="I378" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="AC378" t="s">
         <v>56</v>
       </c>
       <c r="AW378" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="AY378" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="379" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
+        <v>2317</v>
+      </c>
+      <c r="C379" t="s">
         <v>2318</v>
-      </c>
-      <c r="C379" t="s">
-        <v>2319</v>
       </c>
       <c r="E379" t="s">
         <v>53</v>
@@ -25706,7 +25708,7 @@
         <v>48201</v>
       </c>
       <c r="I379" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="L379" t="s">
         <v>56</v>
@@ -25748,18 +25750,18 @@
         <v>56</v>
       </c>
       <c r="AW379" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="AX379" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="380" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
+        <v>2130</v>
+      </c>
+      <c r="C380" t="s">
         <v>2131</v>
-      </c>
-      <c r="C380" t="s">
-        <v>2132</v>
       </c>
       <c r="E380" t="s">
         <v>53</v>
@@ -25771,10 +25773,10 @@
         <v>48201</v>
       </c>
       <c r="I380" t="s">
+        <v>2132</v>
+      </c>
+      <c r="J380" t="s">
         <v>2133</v>
-      </c>
-      <c r="J380" t="s">
-        <v>2134</v>
       </c>
       <c r="L380" t="s">
         <v>56</v>
@@ -25816,15 +25818,15 @@
         <v>56</v>
       </c>
       <c r="AW380" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="381" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
+        <v>1955</v>
+      </c>
+      <c r="C381" t="s">
         <v>1956</v>
-      </c>
-      <c r="C381" t="s">
-        <v>1957</v>
       </c>
       <c r="E381" t="s">
         <v>53</v>
@@ -25836,7 +25838,7 @@
         <v>48201</v>
       </c>
       <c r="I381" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="AB381" t="s">
         <v>56</v>
@@ -25876,7 +25878,7 @@
         <v>522</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="E383" t="s">
         <v>53</v>
@@ -25941,13 +25943,13 @@
     </row>
     <row r="384" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
+        <v>2408</v>
+      </c>
+      <c r="B384" t="s">
         <v>2409</v>
       </c>
-      <c r="B384" t="s">
+      <c r="C384" t="s">
         <v>2410</v>
-      </c>
-      <c r="C384" t="s">
-        <v>2411</v>
       </c>
       <c r="E384" t="s">
         <v>53</v>
@@ -25959,27 +25961,27 @@
         <v>48202</v>
       </c>
       <c r="H384" t="s">
+        <v>2411</v>
+      </c>
+      <c r="I384" t="s">
         <v>2412</v>
       </c>
-      <c r="I384" t="s">
+      <c r="J384" t="s">
         <v>2413</v>
       </c>
-      <c r="J384" t="s">
+      <c r="AL384" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY384" t="s">
         <v>2414</v>
-      </c>
-      <c r="AL384" t="s">
-        <v>56</v>
-      </c>
-      <c r="AY384" t="s">
-        <v>2415</v>
       </c>
     </row>
     <row r="385" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
+        <v>2360</v>
+      </c>
+      <c r="C385" t="s">
         <v>2361</v>
-      </c>
-      <c r="C385" t="s">
-        <v>2362</v>
       </c>
       <c r="E385" t="s">
         <v>53</v>
@@ -25991,7 +25993,7 @@
         <v>48202</v>
       </c>
       <c r="I385" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="L385" t="s">
         <v>56</v>
@@ -26035,10 +26037,10 @@
     </row>
     <row r="386" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
+        <v>2337</v>
+      </c>
+      <c r="C386" t="s">
         <v>2338</v>
-      </c>
-      <c r="C386" t="s">
-        <v>2339</v>
       </c>
       <c r="E386" t="s">
         <v>53</v>
@@ -26050,7 +26052,7 @@
         <v>48202</v>
       </c>
       <c r="I386" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="L386" t="s">
         <v>56</v>
@@ -26514,10 +26516,10 @@
     </row>
     <row r="396" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
+        <v>2401</v>
+      </c>
+      <c r="C396" t="s">
         <v>2402</v>
-      </c>
-      <c r="C396" t="s">
-        <v>2403</v>
       </c>
       <c r="E396" t="s">
         <v>53</v>
@@ -26529,24 +26531,24 @@
         <v>48204</v>
       </c>
       <c r="J396" t="s">
+        <v>2403</v>
+      </c>
+      <c r="AA396" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI396" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY396" t="s">
         <v>2404</v>
-      </c>
-      <c r="AA396" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI396" t="s">
-        <v>56</v>
-      </c>
-      <c r="AY396" t="s">
-        <v>2405</v>
       </c>
     </row>
     <row r="397" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
+        <v>2206</v>
+      </c>
+      <c r="C397" t="s">
         <v>2207</v>
-      </c>
-      <c r="C397" t="s">
-        <v>2208</v>
       </c>
       <c r="E397" t="s">
         <v>53</v>
@@ -26558,7 +26560,7 @@
         <v>48204</v>
       </c>
       <c r="I397" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="AA397" t="s">
         <v>56</v>
@@ -26569,10 +26571,10 @@
     </row>
     <row r="398" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C398" t="s">
         <v>2121</v>
-      </c>
-      <c r="C398" t="s">
-        <v>2122</v>
       </c>
       <c r="E398" t="s">
         <v>53</v>
@@ -26584,24 +26586,24 @@
         <v>48204</v>
       </c>
       <c r="I398" t="s">
+        <v>2122</v>
+      </c>
+      <c r="AB398" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI398" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY398" t="s">
         <v>2123</v>
-      </c>
-      <c r="AB398" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI398" t="s">
-        <v>56</v>
-      </c>
-      <c r="AY398" t="s">
-        <v>2124</v>
       </c>
     </row>
     <row r="399" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C399" t="s">
         <v>1903</v>
-      </c>
-      <c r="C399" t="s">
-        <v>1904</v>
       </c>
       <c r="E399" t="s">
         <v>53</v>
@@ -26863,10 +26865,10 @@
     </row>
     <row r="407" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
+        <v>2175</v>
+      </c>
+      <c r="C407" t="s">
         <v>2176</v>
-      </c>
-      <c r="C407" t="s">
-        <v>2177</v>
       </c>
       <c r="E407" t="s">
         <v>53</v>
@@ -26878,10 +26880,10 @@
         <v>48206</v>
       </c>
       <c r="I407" t="s">
+        <v>2177</v>
+      </c>
+      <c r="J407" t="s">
         <v>2178</v>
-      </c>
-      <c r="J407" t="s">
-        <v>2179</v>
       </c>
       <c r="AA407" t="s">
         <v>56</v>
@@ -27071,10 +27073,10 @@
     </row>
     <row r="412" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
+        <v>2277</v>
+      </c>
+      <c r="C412" t="s">
         <v>2278</v>
-      </c>
-      <c r="C412" t="s">
-        <v>2279</v>
       </c>
       <c r="E412" t="s">
         <v>53</v>
@@ -27086,7 +27088,7 @@
         <v>48207</v>
       </c>
       <c r="I412" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="L412" t="s">
         <v>56</v>
@@ -27125,15 +27127,15 @@
         <v>56</v>
       </c>
       <c r="AW412" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="413" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
+        <v>1914</v>
+      </c>
+      <c r="C413" t="s">
         <v>1915</v>
-      </c>
-      <c r="C413" t="s">
-        <v>1916</v>
       </c>
       <c r="E413" t="s">
         <v>53</v>
@@ -27145,7 +27147,7 @@
         <v>48207</v>
       </c>
       <c r="I413" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="L413" t="s">
         <v>56</v>
@@ -27432,10 +27434,10 @@
     </row>
     <row r="420" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
+        <v>2169</v>
+      </c>
+      <c r="C420" t="s">
         <v>2170</v>
-      </c>
-      <c r="C420" t="s">
-        <v>2171</v>
       </c>
       <c r="E420" t="s">
         <v>53</v>
@@ -27447,10 +27449,10 @@
         <v>48208</v>
       </c>
       <c r="H420" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="I420" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="L420" t="s">
         <v>56</v>
@@ -27500,10 +27502,10 @@
     </row>
     <row r="421" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
+        <v>2017</v>
+      </c>
+      <c r="C421" t="s">
         <v>2018</v>
-      </c>
-      <c r="C421" t="s">
-        <v>2019</v>
       </c>
       <c r="E421" t="s">
         <v>53</v>
@@ -27515,7 +27517,7 @@
         <v>48208</v>
       </c>
       <c r="I421" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="L421" t="s">
         <v>56</v>
@@ -27554,15 +27556,15 @@
         <v>56</v>
       </c>
       <c r="AW421" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="422" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
+        <v>1946</v>
+      </c>
+      <c r="C422" t="s">
         <v>1947</v>
-      </c>
-      <c r="C422" t="s">
-        <v>1948</v>
       </c>
       <c r="E422" t="s">
         <v>53</v>
@@ -27574,7 +27576,7 @@
         <v>48208</v>
       </c>
       <c r="I422" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="L422" t="s">
         <v>56</v>
@@ -27607,7 +27609,7 @@
         <v>95</v>
       </c>
       <c r="AW422" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="AX422" t="s">
         <v>1396</v>
@@ -27829,10 +27831,10 @@
     </row>
     <row r="428" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
+        <v>2388</v>
+      </c>
+      <c r="C428" t="s">
         <v>2389</v>
-      </c>
-      <c r="C428" t="s">
-        <v>2390</v>
       </c>
       <c r="E428" t="s">
         <v>53</v>
@@ -27844,7 +27846,7 @@
         <v>48209</v>
       </c>
       <c r="I428" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="AP428" t="s">
         <v>56</v>
@@ -27855,10 +27857,10 @@
     </row>
     <row r="429" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C429" t="s">
         <v>1798</v>
-      </c>
-      <c r="C429" t="s">
-        <v>1799</v>
       </c>
       <c r="E429" t="s">
         <v>53</v>
@@ -27870,16 +27872,16 @@
         <v>48209</v>
       </c>
       <c r="I429" t="s">
+        <v>1799</v>
+      </c>
+      <c r="AA429" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI429" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY429" t="s">
         <v>1800</v>
-      </c>
-      <c r="AA429" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI429" t="s">
-        <v>56</v>
-      </c>
-      <c r="AY429" t="s">
-        <v>1801</v>
       </c>
     </row>
     <row r="430" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -28114,10 +28116,10 @@
     </row>
     <row r="437" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
+        <v>2135</v>
+      </c>
+      <c r="C437" t="s">
         <v>2136</v>
-      </c>
-      <c r="C437" t="s">
-        <v>2137</v>
       </c>
       <c r="E437" t="s">
         <v>53</v>
@@ -28129,10 +28131,10 @@
         <v>48210</v>
       </c>
       <c r="I437" t="s">
+        <v>2137</v>
+      </c>
+      <c r="J437" t="s">
         <v>2138</v>
-      </c>
-      <c r="J437" t="s">
-        <v>2139</v>
       </c>
       <c r="AA437" t="s">
         <v>56</v>
@@ -28146,10 +28148,10 @@
     </row>
     <row r="438" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
+        <v>2036</v>
+      </c>
+      <c r="C438" t="s">
         <v>2037</v>
-      </c>
-      <c r="C438" t="s">
-        <v>2038</v>
       </c>
       <c r="E438" t="s">
         <v>53</v>
@@ -28161,13 +28163,13 @@
         <v>48210</v>
       </c>
       <c r="H438" t="s">
+        <v>2038</v>
+      </c>
+      <c r="I438" s="2" t="s">
+        <v>2507</v>
+      </c>
+      <c r="J438" t="s">
         <v>2039</v>
-      </c>
-      <c r="I438" s="2" t="s">
-        <v>2508</v>
-      </c>
-      <c r="J438" t="s">
-        <v>2040</v>
       </c>
       <c r="AO438" t="s">
         <v>56</v>
@@ -28175,10 +28177,10 @@
     </row>
     <row r="439" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
+        <v>1850</v>
+      </c>
+      <c r="C439" t="s">
         <v>1851</v>
-      </c>
-      <c r="C439" t="s">
-        <v>1852</v>
       </c>
       <c r="E439" t="s">
         <v>53</v>
@@ -28190,7 +28192,7 @@
         <v>48210</v>
       </c>
       <c r="I439" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="AP439" t="s">
         <v>56</v>
@@ -28198,10 +28200,10 @@
     </row>
     <row r="440" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C440" t="s">
         <v>1770</v>
-      </c>
-      <c r="C440" t="s">
-        <v>1771</v>
       </c>
       <c r="E440" t="s">
         <v>689</v>
@@ -28213,7 +28215,7 @@
         <v>48212</v>
       </c>
       <c r="I440" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="L440" t="s">
         <v>56</v>
@@ -28370,10 +28372,10 @@
     </row>
     <row r="445" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
+        <v>2324</v>
+      </c>
+      <c r="C445" t="s">
         <v>2325</v>
-      </c>
-      <c r="C445" t="s">
-        <v>2326</v>
       </c>
       <c r="E445" t="s">
         <v>53</v>
@@ -28385,16 +28387,16 @@
         <v>48213</v>
       </c>
       <c r="I445" t="s">
+        <v>2326</v>
+      </c>
+      <c r="AA445" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI445" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY445" t="s">
         <v>2327</v>
-      </c>
-      <c r="AA445" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI445" t="s">
-        <v>56</v>
-      </c>
-      <c r="AY445" t="s">
-        <v>2328</v>
       </c>
     </row>
     <row r="446" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -28437,10 +28439,10 @@
     </row>
     <row r="447" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
+        <v>2108</v>
+      </c>
+      <c r="C447" t="s">
         <v>2109</v>
-      </c>
-      <c r="C447" t="s">
-        <v>2110</v>
       </c>
       <c r="E447" t="s">
         <v>53</v>
@@ -28452,7 +28454,7 @@
         <v>48214</v>
       </c>
       <c r="I447" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="L447" t="s">
         <v>56</v>
@@ -28478,10 +28480,10 @@
     </row>
     <row r="448" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
+        <v>1992</v>
+      </c>
+      <c r="C448" t="s">
         <v>1993</v>
-      </c>
-      <c r="C448" t="s">
-        <v>1994</v>
       </c>
       <c r="E448" t="s">
         <v>53</v>
@@ -28493,7 +28495,7 @@
         <v>48214</v>
       </c>
       <c r="I448" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="L448" t="s">
         <v>56</v>
@@ -28895,10 +28897,10 @@
     </row>
     <row r="457" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
+        <v>2185</v>
+      </c>
+      <c r="C457" t="s">
         <v>2186</v>
-      </c>
-      <c r="C457" t="s">
-        <v>2187</v>
       </c>
       <c r="E457" t="s">
         <v>53</v>
@@ -28910,7 +28912,7 @@
         <v>48216</v>
       </c>
       <c r="I457" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="L457" t="s">
         <v>56</v>
@@ -28928,15 +28930,15 @@
         <v>56</v>
       </c>
       <c r="AW457" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="458" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
+        <v>2014</v>
+      </c>
+      <c r="C458" t="s">
         <v>2015</v>
-      </c>
-      <c r="C458" t="s">
-        <v>2016</v>
       </c>
       <c r="E458" t="s">
         <v>53</v>
@@ -28948,7 +28950,7 @@
         <v>48219</v>
       </c>
       <c r="I458" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="L458" t="s">
         <v>56</v>
@@ -29144,10 +29146,10 @@
     </row>
     <row r="463" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C463" t="s">
         <v>1899</v>
-      </c>
-      <c r="C463" t="s">
-        <v>1900</v>
       </c>
       <c r="E463" t="s">
         <v>911</v>
@@ -29159,10 +29161,10 @@
         <v>48220</v>
       </c>
       <c r="I463" t="s">
+        <v>1900</v>
+      </c>
+      <c r="J463" t="s">
         <v>1901</v>
-      </c>
-      <c r="J463" t="s">
-        <v>1902</v>
       </c>
       <c r="AA463" t="s">
         <v>56</v>
@@ -29173,10 +29175,10 @@
     </row>
     <row r="464" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C464" t="s">
         <v>1735</v>
-      </c>
-      <c r="C464" t="s">
-        <v>1736</v>
       </c>
       <c r="E464" t="s">
         <v>911</v>
@@ -29188,10 +29190,10 @@
         <v>48220</v>
       </c>
       <c r="I464" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="J464" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="AA464" t="s">
         <v>56</v>
@@ -29225,10 +29227,10 @@
     </row>
     <row r="466" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
+        <v>2179</v>
+      </c>
+      <c r="C466" t="s">
         <v>2180</v>
-      </c>
-      <c r="C466" t="s">
-        <v>2181</v>
       </c>
       <c r="E466" t="s">
         <v>53</v>
@@ -29240,7 +29242,7 @@
         <v>48221</v>
       </c>
       <c r="I466" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="L466" t="s">
         <v>56</v>
@@ -29319,10 +29321,10 @@
     </row>
     <row r="468" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
+        <v>2111</v>
+      </c>
+      <c r="C468" t="s">
         <v>2112</v>
-      </c>
-      <c r="C468" t="s">
-        <v>2113</v>
       </c>
       <c r="E468" t="s">
         <v>53</v>
@@ -29334,10 +29336,10 @@
         <v>48223</v>
       </c>
       <c r="I468" t="s">
+        <v>2113</v>
+      </c>
+      <c r="J468" t="s">
         <v>2114</v>
-      </c>
-      <c r="J468" t="s">
-        <v>2115</v>
       </c>
       <c r="L468" t="s">
         <v>56</v>
@@ -29462,10 +29464,10 @@
     </row>
     <row r="472" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
+        <v>2346</v>
+      </c>
+      <c r="C472" t="s">
         <v>2347</v>
-      </c>
-      <c r="C472" t="s">
-        <v>2348</v>
       </c>
       <c r="E472" t="s">
         <v>53</v>
@@ -29477,10 +29479,10 @@
         <v>48224</v>
       </c>
       <c r="I472" t="s">
+        <v>2348</v>
+      </c>
+      <c r="J472" t="s">
         <v>2349</v>
-      </c>
-      <c r="J472" t="s">
-        <v>2350</v>
       </c>
       <c r="L472" t="s">
         <v>56</v>
@@ -29501,15 +29503,15 @@
         <v>56</v>
       </c>
       <c r="AX472" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="473" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C473" t="s">
         <v>1887</v>
-      </c>
-      <c r="C473" t="s">
-        <v>1888</v>
       </c>
       <c r="E473" t="s">
         <v>53</v>
@@ -29521,10 +29523,10 @@
         <v>48224</v>
       </c>
       <c r="I473" t="s">
+        <v>1888</v>
+      </c>
+      <c r="J473" t="s">
         <v>1889</v>
-      </c>
-      <c r="J473" t="s">
-        <v>1890</v>
       </c>
       <c r="AA473" t="s">
         <v>56</v>
@@ -29535,10 +29537,10 @@
     </row>
     <row r="474" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
+        <v>1989</v>
+      </c>
+      <c r="C474" t="s">
         <v>1990</v>
-      </c>
-      <c r="C474" t="s">
-        <v>1991</v>
       </c>
       <c r="E474" t="s">
         <v>53</v>
@@ -29550,7 +29552,7 @@
         <v>48227</v>
       </c>
       <c r="I474" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="L474" t="s">
         <v>56</v>
@@ -29742,10 +29744,10 @@
     </row>
     <row r="480" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C480" t="s">
         <v>1891</v>
-      </c>
-      <c r="C480" t="s">
-        <v>1892</v>
       </c>
       <c r="E480" t="s">
         <v>53</v>
@@ -29757,16 +29759,16 @@
         <v>48228</v>
       </c>
       <c r="I480" t="s">
+        <v>1892</v>
+      </c>
+      <c r="AA480" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI480" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY480" t="s">
         <v>1893</v>
-      </c>
-      <c r="AA480" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI480" t="s">
-        <v>56</v>
-      </c>
-      <c r="AY480" t="s">
-        <v>1894</v>
       </c>
     </row>
     <row r="481" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -29897,10 +29899,10 @@
     </row>
     <row r="484" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C484" t="s">
         <v>2094</v>
-      </c>
-      <c r="C484" t="s">
-        <v>2095</v>
       </c>
       <c r="E484" t="s">
         <v>53</v>
@@ -29912,19 +29914,19 @@
         <v>48234</v>
       </c>
       <c r="I484" t="s">
+        <v>2095</v>
+      </c>
+      <c r="J484" t="s">
         <v>2096</v>
       </c>
-      <c r="J484" t="s">
+      <c r="L484" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB484" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY484" t="s">
         <v>2097</v>
-      </c>
-      <c r="L484" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB484" t="s">
-        <v>56</v>
-      </c>
-      <c r="AY484" t="s">
-        <v>2098</v>
       </c>
     </row>
     <row r="485" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -30098,10 +30100,10 @@
     </row>
     <row r="490" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
+        <v>2284</v>
+      </c>
+      <c r="C490" t="s">
         <v>2285</v>
-      </c>
-      <c r="C490" t="s">
-        <v>2286</v>
       </c>
       <c r="E490" t="s">
         <v>53</v>
@@ -30113,7 +30115,7 @@
         <v>48235</v>
       </c>
       <c r="I490" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="L490" t="s">
         <v>56</v>
@@ -30133,10 +30135,10 @@
     </row>
     <row r="491" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
+        <v>2057</v>
+      </c>
+      <c r="C491" t="s">
         <v>2058</v>
-      </c>
-      <c r="C491" t="s">
-        <v>2059</v>
       </c>
       <c r="E491" t="s">
         <v>53</v>
@@ -30148,7 +30150,7 @@
         <v>48235</v>
       </c>
       <c r="I491" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="AC491" t="s">
         <v>56</v>
@@ -30159,10 +30161,10 @@
     </row>
     <row r="492" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
+        <v>1844</v>
+      </c>
+      <c r="C492" t="s">
         <v>1845</v>
-      </c>
-      <c r="C492" t="s">
-        <v>1846</v>
       </c>
       <c r="E492" t="s">
         <v>53</v>
@@ -30174,16 +30176,16 @@
         <v>48235</v>
       </c>
       <c r="I492" t="s">
+        <v>1846</v>
+      </c>
+      <c r="AA492" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI492" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY492" t="s">
         <v>1847</v>
-      </c>
-      <c r="AA492" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI492" t="s">
-        <v>56</v>
-      </c>
-      <c r="AY492" t="s">
-        <v>1848</v>
       </c>
     </row>
     <row r="493" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -30366,13 +30368,13 @@
     </row>
     <row r="498" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
+        <v>2394</v>
+      </c>
+      <c r="B498" t="s">
+        <v>2396</v>
+      </c>
+      <c r="C498" t="s">
         <v>2395</v>
-      </c>
-      <c r="B498" t="s">
-        <v>2397</v>
-      </c>
-      <c r="C498" t="s">
-        <v>2396</v>
       </c>
       <c r="E498" t="s">
         <v>53</v>
@@ -30384,27 +30386,27 @@
         <v>48238</v>
       </c>
       <c r="J498" t="s">
+        <v>2397</v>
+      </c>
+      <c r="AB498" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW498" t="s">
         <v>2398</v>
       </c>
-      <c r="AB498" t="s">
-        <v>56</v>
-      </c>
-      <c r="AW498" t="s">
+      <c r="AX498" t="s">
         <v>2399</v>
       </c>
-      <c r="AX498" t="s">
+      <c r="AY498" t="s">
         <v>2400</v>
-      </c>
-      <c r="AY498" t="s">
-        <v>2401</v>
       </c>
     </row>
     <row r="499" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
+        <v>2150</v>
+      </c>
+      <c r="C499" t="s">
         <v>2151</v>
-      </c>
-      <c r="C499" t="s">
-        <v>2152</v>
       </c>
       <c r="E499" t="s">
         <v>53</v>
@@ -30416,7 +30418,7 @@
         <v>48238</v>
       </c>
       <c r="I499" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="L499" t="s">
         <v>56</v>
@@ -30433,7 +30435,7 @@
     </row>
     <row r="500" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="C500" t="s">
         <v>377</v>
@@ -30451,7 +30453,7 @@
         <v>378</v>
       </c>
       <c r="J500" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="L500" t="s">
         <v>56</v>
@@ -30687,10 +30689,10 @@
     </row>
     <row r="507" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
+        <v>1907</v>
+      </c>
+      <c r="C507" t="s">
         <v>1908</v>
-      </c>
-      <c r="C507" t="s">
-        <v>1909</v>
       </c>
       <c r="E507" t="s">
         <v>987</v>
@@ -30702,7 +30704,7 @@
         <v>48307</v>
       </c>
       <c r="I507" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="AF507" t="s">
         <v>56</v>
@@ -30710,10 +30712,10 @@
     </row>
     <row r="508" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C508" t="s">
         <v>1905</v>
-      </c>
-      <c r="C508" t="s">
-        <v>1906</v>
       </c>
       <c r="E508" t="s">
         <v>987</v>
@@ -30725,7 +30727,7 @@
         <v>48307</v>
       </c>
       <c r="I508" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="AA508" t="s">
         <v>56</v>
@@ -30808,10 +30810,10 @@
     </row>
     <row r="512" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C512" t="s">
         <v>1754</v>
-      </c>
-      <c r="C512" t="s">
-        <v>1755</v>
       </c>
       <c r="E512" t="s">
         <v>849</v>
@@ -30823,7 +30825,7 @@
         <v>48327</v>
       </c>
       <c r="I512" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="AA512" t="s">
         <v>56</v>
@@ -30866,10 +30868,10 @@
     </row>
     <row r="514" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
+        <v>2354</v>
+      </c>
+      <c r="C514" t="s">
         <v>2355</v>
-      </c>
-      <c r="C514" t="s">
-        <v>2356</v>
       </c>
       <c r="E514" t="s">
         <v>849</v>
@@ -30881,7 +30883,7 @@
         <v>48329</v>
       </c>
       <c r="I514" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="AF514" t="s">
         <v>56</v>
@@ -30895,10 +30897,10 @@
     </row>
     <row r="515" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C515" t="s">
         <v>1726</v>
-      </c>
-      <c r="C515" t="s">
-        <v>1727</v>
       </c>
       <c r="E515" t="s">
         <v>146</v>
@@ -30910,7 +30912,7 @@
         <v>48340</v>
       </c>
       <c r="I515" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="AC515" t="s">
         <v>56</v>
@@ -30950,10 +30952,10 @@
     </row>
     <row r="517" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C517" t="s">
         <v>1884</v>
-      </c>
-      <c r="C517" t="s">
-        <v>1885</v>
       </c>
       <c r="E517" t="s">
         <v>280</v>
@@ -30965,7 +30967,7 @@
         <v>48341</v>
       </c>
       <c r="I517" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="L517" t="s">
         <v>56</v>
@@ -31021,10 +31023,10 @@
     </row>
     <row r="518" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="C518" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="E518" t="s">
         <v>1387</v>
@@ -31036,7 +31038,7 @@
         <v>48341</v>
       </c>
       <c r="I518" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="AC518" t="s">
         <v>56</v>
@@ -31044,10 +31046,10 @@
     </row>
     <row r="519" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
+        <v>2373</v>
+      </c>
+      <c r="C519" t="s">
         <v>2374</v>
-      </c>
-      <c r="C519" t="s">
-        <v>2375</v>
       </c>
       <c r="E519" t="s">
         <v>146</v>
@@ -31059,10 +31061,10 @@
         <v>48341</v>
       </c>
       <c r="H519" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="I519" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="AI519" t="s">
         <v>56</v>
@@ -31079,7 +31081,7 @@
         <v>1712</v>
       </c>
       <c r="C520" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="E520" t="s">
         <v>146</v>
@@ -31091,7 +31093,7 @@
         <v>48341</v>
       </c>
       <c r="I520" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="AD520" t="s">
         <v>56</v>
@@ -31102,13 +31104,13 @@
     </row>
     <row r="521" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
+        <v>2001</v>
+      </c>
+      <c r="C521" t="s">
         <v>2002</v>
       </c>
-      <c r="C521" t="s">
+      <c r="E521" t="s">
         <v>2003</v>
-      </c>
-      <c r="E521" t="s">
-        <v>2004</v>
       </c>
       <c r="F521" t="s">
         <v>54</v>
@@ -31117,7 +31119,7 @@
         <v>48342</v>
       </c>
       <c r="I521" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="AA521" t="s">
         <v>56</v>
@@ -31138,15 +31140,15 @@
         <v>95</v>
       </c>
       <c r="AX521" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="522" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
+        <v>2005</v>
+      </c>
+      <c r="C522" t="s">
         <v>2006</v>
-      </c>
-      <c r="C522" t="s">
-        <v>2007</v>
       </c>
       <c r="E522" t="s">
         <v>146</v>
@@ -31176,15 +31178,15 @@
         <v>95</v>
       </c>
       <c r="AX522" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="523" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C523" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="E523" t="s">
         <v>146</v>
@@ -31196,45 +31198,45 @@
         <v>48342</v>
       </c>
       <c r="H523" t="s">
+        <v>1999</v>
+      </c>
+      <c r="I523" t="s">
+        <v>1988</v>
+      </c>
+      <c r="AC523" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI523" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ523" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK523" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM523" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO523" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP523" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ523" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW523" t="s">
         <v>2000</v>
-      </c>
-      <c r="I523" t="s">
-        <v>1989</v>
-      </c>
-      <c r="AC523" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI523" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ523" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK523" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM523" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO523" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP523" t="s">
-        <v>56</v>
-      </c>
-      <c r="AQ523" t="s">
-        <v>56</v>
-      </c>
-      <c r="AW523" t="s">
-        <v>2001</v>
       </c>
     </row>
     <row r="524" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
+        <v>1985</v>
+      </c>
+      <c r="C524" t="s">
         <v>1986</v>
-      </c>
-      <c r="C524" t="s">
-        <v>1987</v>
       </c>
       <c r="E524" t="s">
         <v>146</v>
@@ -31246,10 +31248,10 @@
         <v>48342</v>
       </c>
       <c r="H524" t="s">
+        <v>1987</v>
+      </c>
+      <c r="I524" t="s">
         <v>1988</v>
-      </c>
-      <c r="I524" t="s">
-        <v>1989</v>
       </c>
       <c r="AB524" t="s">
         <v>56</v>
@@ -31318,7 +31320,7 @@
         <v>846</v>
       </c>
       <c r="E527" s="2" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="F527" t="s">
         <v>54</v>
@@ -31459,10 +31461,10 @@
     </row>
     <row r="533" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
+        <v>2305</v>
+      </c>
+      <c r="C533" t="s">
         <v>2306</v>
-      </c>
-      <c r="C533" t="s">
-        <v>2307</v>
       </c>
       <c r="E533" t="s">
         <v>280</v>
@@ -31474,7 +31476,7 @@
         <v>48601</v>
       </c>
       <c r="I533" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="L533" t="s">
         <v>56</v>
@@ -31675,7 +31677,7 @@
         <v>1072</v>
       </c>
       <c r="C536" s="2" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="E536" t="s">
         <v>280</v>
@@ -31733,10 +31735,10 @@
     </row>
     <row r="538" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
+        <v>1939</v>
+      </c>
+      <c r="C538" t="s">
         <v>1940</v>
-      </c>
-      <c r="C538" t="s">
-        <v>1941</v>
       </c>
       <c r="E538" t="s">
         <v>280</v>
@@ -31748,7 +31750,7 @@
         <v>48602</v>
       </c>
       <c r="I538" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="AI538" t="s">
         <v>56</v>
@@ -31756,10 +31758,10 @@
     </row>
     <row r="539" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C539" t="s">
         <v>1935</v>
-      </c>
-      <c r="C539" t="s">
-        <v>1936</v>
       </c>
       <c r="E539" t="s">
         <v>280</v>
@@ -31771,7 +31773,7 @@
         <v>48602</v>
       </c>
       <c r="I539" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="AD539" t="s">
         <v>56</v>
@@ -32101,7 +32103,7 @@
         <v>89</v>
       </c>
       <c r="C548" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="E548" t="s">
         <v>90</v>
@@ -32113,10 +32115,10 @@
         <v>48811</v>
       </c>
       <c r="H548" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="I548" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="AP548" t="s">
         <v>56</v>
@@ -32176,13 +32178,13 @@
     </row>
     <row r="551" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
+        <v>2223</v>
+      </c>
+      <c r="C551" t="s">
         <v>2224</v>
       </c>
-      <c r="C551" t="s">
+      <c r="E551" t="s">
         <v>2225</v>
-      </c>
-      <c r="E551" t="s">
-        <v>2226</v>
       </c>
       <c r="F551" t="s">
         <v>54</v>
@@ -32202,10 +32204,10 @@
     </row>
     <row r="552" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
+        <v>2244</v>
+      </c>
+      <c r="C552" t="s">
         <v>2245</v>
-      </c>
-      <c r="C552" t="s">
-        <v>2246</v>
       </c>
       <c r="E552" t="s">
         <v>154</v>
@@ -32217,7 +32219,7 @@
         <v>48846</v>
       </c>
       <c r="I552" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="AC552" t="s">
         <v>56</v>
@@ -32395,13 +32397,13 @@
     </row>
     <row r="560" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C560" t="s">
         <v>2049</v>
       </c>
-      <c r="C560" t="s">
+      <c r="E560" t="s">
         <v>2050</v>
-      </c>
-      <c r="E560" t="s">
-        <v>2051</v>
       </c>
       <c r="F560" t="s">
         <v>54</v>
@@ -32410,7 +32412,7 @@
         <v>48867</v>
       </c>
       <c r="I560" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="L560" t="s">
         <v>56</v>
@@ -32451,13 +32453,13 @@
     </row>
     <row r="561" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
+        <v>1917</v>
+      </c>
+      <c r="C561" t="s">
         <v>1918</v>
       </c>
-      <c r="C561" t="s">
+      <c r="E561" t="s">
         <v>1919</v>
-      </c>
-      <c r="E561" t="s">
-        <v>1920</v>
       </c>
       <c r="F561" t="s">
         <v>54</v>
@@ -32466,7 +32468,7 @@
         <v>49102</v>
       </c>
       <c r="I561" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="AD561" t="s">
         <v>56</v>
@@ -32524,7 +32526,7 @@
         <v>49349</v>
       </c>
       <c r="I563" s="2" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="AD563" t="s">
         <v>56</v>
@@ -32535,10 +32537,10 @@
     </row>
     <row r="564" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
+        <v>2209</v>
+      </c>
+      <c r="C564" t="s">
         <v>2210</v>
-      </c>
-      <c r="C564" t="s">
-        <v>2211</v>
       </c>
       <c r="E564" t="s">
         <v>406</v>
@@ -32550,7 +32552,7 @@
         <v>49417</v>
       </c>
       <c r="I564" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="AD564" t="s">
         <v>56</v>
@@ -32640,7 +32642,7 @@
         <v>49441</v>
       </c>
       <c r="I567" s="2" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="L567" t="s">
         <v>56</v>
@@ -32672,10 +32674,10 @@
     </row>
     <row r="568" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="C568" s="2" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="E568" t="s">
         <v>72</v>
@@ -32687,7 +32689,7 @@
         <v>49442</v>
       </c>
       <c r="I568" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="AF568" t="s">
         <v>56</v>
@@ -32829,10 +32831,10 @@
     </row>
     <row r="573" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C573" t="s">
         <v>1832</v>
-      </c>
-      <c r="C573" t="s">
-        <v>1833</v>
       </c>
       <c r="E573" t="s">
         <v>508</v>
@@ -32841,7 +32843,7 @@
         <v>54</v>
       </c>
       <c r="I573" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="AC573" t="s">
         <v>56</v>
@@ -32849,13 +32851,13 @@
     </row>
     <row r="574" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
+        <v>2443</v>
+      </c>
+      <c r="B574" t="s">
         <v>2444</v>
       </c>
-      <c r="B574" t="s">
+      <c r="C574" t="s">
         <v>2445</v>
-      </c>
-      <c r="C574" t="s">
-        <v>2446</v>
       </c>
       <c r="E574" t="s">
         <v>280</v>
@@ -32864,7 +32866,7 @@
         <v>54</v>
       </c>
       <c r="I574" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="L574" t="s">
         <v>56</v>
@@ -32884,13 +32886,13 @@
     </row>
     <row r="575" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
+        <v>2415</v>
+      </c>
+      <c r="B575" t="s">
         <v>2416</v>
       </c>
-      <c r="B575" t="s">
+      <c r="C575" t="s">
         <v>2417</v>
-      </c>
-      <c r="C575" t="s">
-        <v>2418</v>
       </c>
       <c r="E575" t="s">
         <v>280</v>
@@ -32899,7 +32901,7 @@
         <v>54</v>
       </c>
       <c r="I575" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="AA575" t="s">
         <v>56</v>
@@ -32910,10 +32912,10 @@
     </row>
     <row r="576" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
+        <v>2385</v>
+      </c>
+      <c r="C576" t="s">
         <v>2386</v>
-      </c>
-      <c r="C576" t="s">
-        <v>2387</v>
       </c>
       <c r="E576" t="s">
         <v>280</v>
@@ -32922,7 +32924,7 @@
         <v>54</v>
       </c>
       <c r="I576" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="L576" t="s">
         <v>56</v>
@@ -32942,10 +32944,10 @@
     </row>
     <row r="577" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
+        <v>2219</v>
+      </c>
+      <c r="C577" t="s">
         <v>2220</v>
-      </c>
-      <c r="C577" t="s">
-        <v>2221</v>
       </c>
       <c r="E577" t="s">
         <v>280</v>
@@ -32954,7 +32956,7 @@
         <v>54</v>
       </c>
       <c r="H577" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="L577" t="s">
         <v>56</v>
@@ -32975,15 +32977,15 @@
         <v>56</v>
       </c>
       <c r="AW577" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="578" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
+        <v>2203</v>
+      </c>
+      <c r="C578" t="s">
         <v>2204</v>
-      </c>
-      <c r="C578" t="s">
-        <v>2205</v>
       </c>
       <c r="E578" t="s">
         <v>280</v>
@@ -32992,7 +32994,7 @@
         <v>54</v>
       </c>
       <c r="I578" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="AJ578" t="s">
         <v>56</v>
@@ -33000,10 +33002,10 @@
     </row>
     <row r="579" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
+        <v>2193</v>
+      </c>
+      <c r="C579" t="s">
         <v>2194</v>
-      </c>
-      <c r="C579" t="s">
-        <v>2195</v>
       </c>
       <c r="E579" t="s">
         <v>280</v>
@@ -33018,7 +33020,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="R579" s="7" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="U579" s="7">
         <v>0.54166666666666663</v>
@@ -33035,10 +33037,10 @@
     </row>
     <row r="580" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
+        <v>2182</v>
+      </c>
+      <c r="C580" t="s">
         <v>2183</v>
-      </c>
-      <c r="C580" t="s">
-        <v>2184</v>
       </c>
       <c r="E580" t="s">
         <v>280</v>
@@ -33047,7 +33049,7 @@
         <v>54</v>
       </c>
       <c r="I580" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="L580" t="s">
         <v>56</v>
@@ -33064,10 +33066,10 @@
     </row>
     <row r="581" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
+        <v>2172</v>
+      </c>
+      <c r="C581" t="s">
         <v>2173</v>
-      </c>
-      <c r="C581" t="s">
-        <v>2174</v>
       </c>
       <c r="E581" t="s">
         <v>280</v>
@@ -33093,10 +33095,10 @@
     </row>
     <row r="582" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="C582" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="E582" t="s">
         <v>280</v>
@@ -33122,10 +33124,10 @@
     </row>
     <row r="583" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C583" t="s">
         <v>2154</v>
-      </c>
-      <c r="C583" t="s">
-        <v>2155</v>
       </c>
       <c r="E583" t="s">
         <v>280</v>
@@ -33151,10 +33153,10 @@
     </row>
     <row r="584" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
+        <v>2060</v>
+      </c>
+      <c r="C584" t="s">
         <v>2061</v>
-      </c>
-      <c r="C584" t="s">
-        <v>2062</v>
       </c>
       <c r="E584" t="s">
         <v>280</v>
@@ -33163,7 +33165,7 @@
         <v>54</v>
       </c>
       <c r="I584" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="AN584" t="s">
         <v>56</v>
@@ -33171,10 +33173,10 @@
     </row>
     <row r="585" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C585" t="s">
         <v>1932</v>
-      </c>
-      <c r="C585" t="s">
-        <v>1933</v>
       </c>
       <c r="E585" t="s">
         <v>280</v>
@@ -33183,7 +33185,7 @@
         <v>54</v>
       </c>
       <c r="I585" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="L585" t="s">
         <v>56</v>
@@ -33203,10 +33205,10 @@
     </row>
     <row r="586" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C586" t="s">
         <v>1922</v>
-      </c>
-      <c r="C586" t="s">
-        <v>1923</v>
       </c>
       <c r="E586" t="s">
         <v>280</v>
@@ -33215,7 +33217,7 @@
         <v>54</v>
       </c>
       <c r="I586" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="L586" t="s">
         <v>56</v>
@@ -33266,7 +33268,7 @@
         <v>56</v>
       </c>
       <c r="AW586" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="587" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -33540,10 +33542,10 @@
     </row>
     <row r="594" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
+        <v>2391</v>
+      </c>
+      <c r="C594" t="s">
         <v>2392</v>
-      </c>
-      <c r="C594" t="s">
-        <v>2393</v>
       </c>
       <c r="E594" t="s">
         <v>387</v>
@@ -33552,7 +33554,7 @@
         <v>54</v>
       </c>
       <c r="I594" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="AC594" t="s">
         <v>56</v>
@@ -33560,10 +33562,10 @@
     </row>
     <row r="595" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="C595" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="E595" t="s">
         <v>387</v>
@@ -33572,7 +33574,7 @@
         <v>54</v>
       </c>
       <c r="I595" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="AA595" t="s">
         <v>56</v>
@@ -33649,10 +33651,10 @@
     </row>
     <row r="599" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
+        <v>2201</v>
+      </c>
+      <c r="C599" t="s">
         <v>2202</v>
-      </c>
-      <c r="C599" t="s">
-        <v>2203</v>
       </c>
       <c r="E599" t="s">
         <v>146</v>
@@ -33661,7 +33663,7 @@
         <v>54</v>
       </c>
       <c r="I599" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="AC599" t="s">
         <v>56</v>
@@ -33669,10 +33671,10 @@
     </row>
     <row r="600" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
+        <v>2162</v>
+      </c>
+      <c r="C600" t="s">
         <v>2163</v>
-      </c>
-      <c r="C600" t="s">
-        <v>2164</v>
       </c>
       <c r="E600" t="s">
         <v>146</v>
@@ -33681,7 +33683,7 @@
         <v>54</v>
       </c>
       <c r="I600" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="AC600" t="s">
         <v>56</v>
@@ -33689,10 +33691,10 @@
     </row>
     <row r="601" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C601" t="s">
         <v>1840</v>
-      </c>
-      <c r="C601" t="s">
-        <v>1841</v>
       </c>
       <c r="E601" t="s">
         <v>146</v>
@@ -33701,7 +33703,7 @@
         <v>54</v>
       </c>
       <c r="I601" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="AC601" t="s">
         <v>56</v>
@@ -33709,10 +33711,10 @@
     </row>
     <row r="602" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C602" t="s">
         <v>1728</v>
-      </c>
-      <c r="C602" t="s">
-        <v>1729</v>
       </c>
       <c r="E602" t="s">
         <v>146</v>
@@ -33721,7 +33723,7 @@
         <v>54</v>
       </c>
       <c r="I602" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="AN602" t="s">
         <v>56</v>
@@ -33835,10 +33837,10 @@
     </row>
     <row r="608" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
+        <v>2258</v>
+      </c>
+      <c r="C608" t="s">
         <v>2259</v>
-      </c>
-      <c r="C608" t="s">
-        <v>2260</v>
       </c>
       <c r="E608" t="s">
         <v>944</v>
@@ -33847,7 +33849,7 @@
         <v>54</v>
       </c>
       <c r="I608" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="AC608" t="s">
         <v>56</v>
@@ -33875,19 +33877,19 @@
     </row>
     <row r="610" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
+        <v>2155</v>
+      </c>
+      <c r="C610" t="s">
         <v>2156</v>
       </c>
-      <c r="C610" t="s">
+      <c r="E610" t="s">
         <v>2157</v>
       </c>
-      <c r="E610" t="s">
+      <c r="F610" t="s">
+        <v>54</v>
+      </c>
+      <c r="I610" t="s">
         <v>2158</v>
-      </c>
-      <c r="F610" t="s">
-        <v>54</v>
-      </c>
-      <c r="I610" t="s">
-        <v>2159</v>
       </c>
       <c r="AC610" t="s">
         <v>56</v>
@@ -33895,19 +33897,19 @@
     </row>
     <row r="611" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C611" t="s">
         <v>2076</v>
       </c>
-      <c r="C611" t="s">
+      <c r="E611" t="s">
         <v>2077</v>
       </c>
-      <c r="E611" t="s">
+      <c r="F611" t="s">
+        <v>54</v>
+      </c>
+      <c r="I611" t="s">
         <v>2078</v>
-      </c>
-      <c r="F611" t="s">
-        <v>54</v>
-      </c>
-      <c r="I611" t="s">
-        <v>2079</v>
       </c>
       <c r="AJ611" t="s">
         <v>56</v>
@@ -33915,13 +33917,13 @@
     </row>
     <row r="612" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
+        <v>2432</v>
+      </c>
+      <c r="B612" t="s">
         <v>2433</v>
       </c>
-      <c r="B612" t="s">
+      <c r="C612" t="s">
         <v>2434</v>
-      </c>
-      <c r="C612" t="s">
-        <v>2435</v>
       </c>
       <c r="E612" t="s">
         <v>356</v>
@@ -33930,7 +33932,7 @@
         <v>54</v>
       </c>
       <c r="I612" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="AD612" t="s">
         <v>56</v>
@@ -34057,10 +34059,10 @@
     </row>
     <row r="617" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C617" t="s">
         <v>1731</v>
-      </c>
-      <c r="C617" t="s">
-        <v>1732</v>
       </c>
       <c r="E617" t="s">
         <v>911</v>
@@ -34069,30 +34071,33 @@
         <v>54</v>
       </c>
       <c r="I617" t="s">
+        <v>1732</v>
+      </c>
+      <c r="AN617" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW617" t="s">
         <v>1733</v>
-      </c>
-      <c r="AN617" t="s">
-        <v>56</v>
-      </c>
-      <c r="AW617" t="s">
-        <v>1734</v>
       </c>
     </row>
     <row r="618" spans="1:49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>1712</v>
       </c>
-      <c r="C618" t="s">
+      <c r="C618" s="2" t="s">
+        <v>2652</v>
+      </c>
+      <c r="E618" s="2" t="s">
         <v>1713</v>
       </c>
-      <c r="E618" t="s">
+      <c r="F618" t="s">
+        <v>54</v>
+      </c>
+      <c r="G618" s="2">
+        <v>48072</v>
+      </c>
+      <c r="I618" t="s">
         <v>1714</v>
-      </c>
-      <c r="F618" t="s">
-        <v>54</v>
-      </c>
-      <c r="I618" t="s">
-        <v>1715</v>
       </c>
       <c r="AD618" t="s">
         <v>56</v>
@@ -34295,8 +34300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBDEFB4D-0B81-4244-A71B-6EA92C9862E6}">
   <dimension ref="A1:AY79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34468,7 +34473,7 @@
     </row>
     <row r="2" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="4"/>
@@ -34480,11 +34485,11 @@
       <c r="G2" s="4"/>
       <c r="H2" s="14"/>
       <c r="I2" s="13" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="3" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="L2" s="14"/>
       <c r="M2" s="15"/>
@@ -34538,7 +34543,7 @@
       <c r="AU2" s="14"/>
       <c r="AV2" s="14"/>
       <c r="AW2" s="13" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="AX2" s="14"/>
       <c r="AY2" s="14"/>
@@ -34565,7 +34570,7 @@
         <v>796</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="L3" s="14"/>
       <c r="M3" s="15"/>
@@ -34636,7 +34641,7 @@
         <v>796</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="L4" s="14"/>
       <c r="M4" s="15"/>
@@ -34707,7 +34712,7 @@
         <v>796</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="L5" s="14"/>
       <c r="M5" s="15"/>
@@ -34778,7 +34783,7 @@
         <v>796</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="L6" s="14"/>
       <c r="M6" s="15"/>
@@ -34849,7 +34854,7 @@
         <v>796</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="L7" s="14"/>
       <c r="M7" s="15"/>
@@ -34914,7 +34919,7 @@
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
       <c r="K8" s="3" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="L8" s="14"/>
       <c r="M8" s="15"/>
@@ -34961,7 +34966,7 @@
     </row>
     <row r="9" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="4"/>
@@ -34975,13 +34980,13 @@
       <c r="G9" s="5"/>
       <c r="H9" s="14"/>
       <c r="I9" s="13" t="s">
+        <v>1881</v>
+      </c>
+      <c r="J9" s="13" t="s">
         <v>1882</v>
       </c>
-      <c r="J9" s="13" t="s">
-        <v>1883</v>
-      </c>
       <c r="K9" s="3" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="L9" s="14"/>
       <c r="M9" s="15"/>
@@ -35030,13 +35035,13 @@
     </row>
     <row r="10" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="4"/>
       <c r="D10" s="14"/>
       <c r="E10" s="13" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>54</v>
@@ -35048,7 +35053,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
       <c r="K10" s="3" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="L10" s="14"/>
       <c r="M10" s="15"/>
@@ -35115,7 +35120,7 @@
         <v>796</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="L11" s="14"/>
       <c r="M11" s="15"/>
@@ -35166,7 +35171,7 @@
     </row>
     <row r="12" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="4"/>
@@ -35178,11 +35183,11 @@
       <c r="G12" s="4"/>
       <c r="H12" s="14"/>
       <c r="I12" s="13" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="J12" s="14"/>
       <c r="K12" s="3" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="L12" s="13" t="s">
         <v>56</v>
@@ -35320,7 +35325,7 @@
     </row>
     <row r="14" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="4"/>
@@ -35332,11 +35337,11 @@
       <c r="G14" s="4"/>
       <c r="H14" s="14"/>
       <c r="I14" s="13" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="J14" s="14"/>
       <c r="K14" s="13" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="L14" s="14"/>
       <c r="M14" s="15"/>
@@ -35460,7 +35465,7 @@
     </row>
     <row r="16" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="B16" s="14"/>
       <c r="C16" s="4"/>
@@ -35474,7 +35479,7 @@
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
       <c r="K16" s="13" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="L16" s="14"/>
       <c r="M16" s="15"/>
@@ -35600,7 +35605,7 @@
       <c r="G18" s="4"/>
       <c r="H18" s="14"/>
       <c r="I18" s="13" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="J18" s="14"/>
       <c r="K18" s="13" t="s">
@@ -35738,7 +35743,7 @@
       </c>
       <c r="J20" s="14"/>
       <c r="K20" s="3" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="L20" s="14"/>
       <c r="M20" s="15"/>
@@ -35913,7 +35918,7 @@
     </row>
     <row r="23" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="4"/>
@@ -35927,7 +35932,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="14"/>
       <c r="I23" s="13" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="J23" s="14"/>
       <c r="K23" s="14"/>
@@ -35976,7 +35981,7 @@
     </row>
     <row r="24" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="4"/>
@@ -35990,7 +35995,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="14"/>
       <c r="I24" s="13" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="J24" s="14"/>
       <c r="K24" s="14"/>
@@ -36039,7 +36044,7 @@
     </row>
     <row r="25" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="5"/>
@@ -36053,7 +36058,7 @@
       <c r="G25" s="5"/>
       <c r="H25" s="14"/>
       <c r="I25" s="13" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="J25" s="14"/>
       <c r="K25" s="14"/>
@@ -36104,7 +36109,7 @@
     </row>
     <row r="26" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="B26" s="14"/>
       <c r="C26" s="4"/>
@@ -36118,7 +36123,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="14"/>
       <c r="I26" s="13" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="J26" s="14"/>
       <c r="K26" s="14"/>
@@ -36167,7 +36172,7 @@
     </row>
     <row r="27" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="4"/>
@@ -36181,7 +36186,7 @@
       <c r="G27" s="4"/>
       <c r="H27" s="14"/>
       <c r="I27" s="13" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="J27" s="14"/>
       <c r="K27" s="14"/>
@@ -36301,10 +36306,10 @@
     </row>
     <row r="29" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
+        <v>2436</v>
+      </c>
+      <c r="B29" s="13" t="s">
         <v>2437</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>2438</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="14"/>
@@ -36315,7 +36320,7 @@
       <c r="G29" s="4"/>
       <c r="H29" s="14"/>
       <c r="I29" s="13" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="J29" s="14"/>
       <c r="K29" s="14"/>
@@ -36494,10 +36499,10 @@
     </row>
     <row r="32" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
+        <v>2405</v>
+      </c>
+      <c r="B32" s="13" t="s">
         <v>2406</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>2407</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="14"/>
@@ -36508,7 +36513,7 @@
       <c r="G32" s="4"/>
       <c r="H32" s="14"/>
       <c r="I32" s="13" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="J32" s="14"/>
       <c r="K32" s="14"/>
@@ -38658,7 +38663,7 @@
     </row>
     <row r="66" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="B66" s="14"/>
       <c r="C66" s="4"/>
@@ -38670,7 +38675,7 @@
       <c r="G66" s="4"/>
       <c r="H66" s="14"/>
       <c r="I66" s="13" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="J66" s="14"/>
       <c r="K66" s="14"/>
@@ -38721,7 +38726,7 @@
     </row>
     <row r="67" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="B67" s="14"/>
       <c r="C67" s="4"/>
@@ -38733,7 +38738,7 @@
       <c r="G67" s="5"/>
       <c r="H67" s="14"/>
       <c r="I67" s="13" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="J67" s="14"/>
       <c r="K67" s="14"/>
@@ -38786,7 +38791,7 @@
     </row>
     <row r="68" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="B68" s="14"/>
       <c r="C68" s="4"/>
@@ -38798,7 +38803,7 @@
       <c r="G68" s="4"/>
       <c r="H68" s="14"/>
       <c r="I68" s="13" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="J68" s="14"/>
       <c r="K68" s="14"/>
@@ -38855,7 +38860,7 @@
     </row>
     <row r="69" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="B69" s="14"/>
       <c r="C69" s="4"/>
@@ -38867,7 +38872,7 @@
       <c r="G69" s="4"/>
       <c r="H69" s="14"/>
       <c r="I69" s="13" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="J69" s="14"/>
       <c r="K69" s="14"/>
@@ -38916,7 +38921,7 @@
     </row>
     <row r="70" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="B70" s="14"/>
       <c r="C70" s="5"/>
@@ -38928,7 +38933,7 @@
       <c r="G70" s="5"/>
       <c r="H70" s="14"/>
       <c r="I70" s="13" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="J70" s="14"/>
       <c r="K70" s="14"/>
@@ -38985,7 +38990,7 @@
     </row>
     <row r="71" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="B71" s="14"/>
       <c r="C71" s="4"/>
@@ -39050,7 +39055,7 @@
     </row>
     <row r="72" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="B72" s="14"/>
       <c r="C72" s="4"/>
@@ -39062,7 +39067,7 @@
       <c r="G72" s="5"/>
       <c r="H72" s="14"/>
       <c r="I72" s="13" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="J72" s="14"/>
       <c r="K72" s="14"/>
@@ -39141,7 +39146,7 @@
     </row>
     <row r="73" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="B73" s="14"/>
       <c r="C73" s="4"/>
@@ -39153,7 +39158,7 @@
       <c r="G73" s="4"/>
       <c r="H73" s="14"/>
       <c r="I73" s="13" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="J73" s="14"/>
       <c r="K73" s="14"/>
@@ -39208,7 +39213,7 @@
     </row>
     <row r="74" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="B74" s="14"/>
       <c r="C74" s="4"/>
@@ -39220,7 +39225,7 @@
       <c r="G74" s="4"/>
       <c r="H74" s="14"/>
       <c r="I74" s="13" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="J74" s="14"/>
       <c r="K74" s="14"/>
@@ -39271,7 +39276,7 @@
     </row>
     <row r="75" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="B75" s="14"/>
       <c r="C75" s="5"/>
@@ -39330,7 +39335,7 @@
     </row>
     <row r="76" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="B76" s="14"/>
       <c r="C76" s="4"/>
@@ -39342,7 +39347,7 @@
       <c r="G76" s="5"/>
       <c r="H76" s="14"/>
       <c r="I76" s="13" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="J76" s="14"/>
       <c r="K76" s="14"/>
@@ -39393,7 +39398,7 @@
     </row>
     <row r="77" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="B77" s="14"/>
       <c r="C77" s="5"/>
@@ -39405,7 +39410,7 @@
       <c r="G77" s="5"/>
       <c r="H77" s="14"/>
       <c r="I77" s="13" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="J77" s="14"/>
       <c r="K77" s="14"/>
@@ -39458,7 +39463,7 @@
     </row>
     <row r="78" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="B78" s="14"/>
       <c r="C78" s="4"/>
@@ -39470,7 +39475,7 @@
       <c r="G78" s="4"/>
       <c r="H78" s="14"/>
       <c r="I78" s="13" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="J78" s="14"/>
       <c r="K78" s="14"/>
@@ -39521,7 +39526,7 @@
     </row>
     <row r="79" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="B79" s="14"/>
       <c r="C79" s="4"/>
@@ -39532,13 +39537,13 @@
       </c>
       <c r="G79" s="5"/>
       <c r="H79" s="13" t="s">
+        <v>2429</v>
+      </c>
+      <c r="I79" s="13" t="s">
         <v>2430</v>
       </c>
-      <c r="I79" s="13" t="s">
+      <c r="J79" s="13" t="s">
         <v>2431</v>
-      </c>
-      <c r="J79" s="13" t="s">
-        <v>2432</v>
       </c>
       <c r="K79" s="14"/>
       <c r="L79" s="14"/>
